--- a/SBI.xlsx
+++ b/SBI.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyose\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyose\Desktop\SBI_Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A60C69-F00B-48DD-B556-BDB38587CF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7105DD96-6732-4E9A-B7B3-8EAB66C8F62E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="696" yWindow="144" windowWidth="11940" windowHeight="11412" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SBI用語" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,12 @@
     <sheet name="順張り_テクニカル分析法" sheetId="7" r:id="rId4"/>
     <sheet name="逆張り_テクニカル分析法" sheetId="8" r:id="rId5"/>
     <sheet name="チャートの見方" sheetId="6" r:id="rId6"/>
-    <sheet name="敗北" sheetId="9" r:id="rId7"/>
-    <sheet name="勝利" sheetId="10" r:id="rId8"/>
-    <sheet name="正しい勝ち方負け方分析" sheetId="12" r:id="rId9"/>
-    <sheet name="分析用" sheetId="11" r:id="rId10"/>
-    <sheet name="SBI口座関連情報" sheetId="3" r:id="rId11"/>
+    <sheet name="勝利" sheetId="10" r:id="rId7"/>
+    <sheet name="敗北" sheetId="9" r:id="rId8"/>
+    <sheet name="ざっくり収益" sheetId="13" r:id="rId9"/>
+    <sheet name="正しい勝ち方負け方分析" sheetId="12" r:id="rId10"/>
+    <sheet name="分析用" sheetId="11" r:id="rId11"/>
+    <sheet name="SBI口座関連情報" sheetId="3" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="165">
   <si>
     <t>SBI</t>
     <phoneticPr fontId="1"/>
@@ -2156,6 +2157,87 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ざっくり収益</t>
+    <rPh sb="4" eb="6">
+      <t>シュウエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期間</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収益</t>
+    <rPh sb="0" eb="2">
+      <t>シュウエキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023
+6/22 →　7/13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>計算用タブ</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JALを売却した収益がほとんどなものの、それを除く利益が損益に優っているため割と上手くいった印象</t>
+    <rPh sb="4" eb="6">
+      <t>バイキャク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウエキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>リエキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ソンエキ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>マサ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ワリ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ウマ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>インショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -2302,7 +2384,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2330,6 +2412,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2441,7 +2541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="155">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -2869,6 +2969,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5534,6 +5652,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>183352</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>137707</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49524197-035A-C89F-1F4F-DCD68F723071}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="30632400"/>
+          <a:ext cx="5441152" cy="6309907"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7564,11 +7726,90 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A0B6E6-B6BA-4227-9FE9-613C2813A3E8}">
+  <dimension ref="A1:Z2"/>
+  <sheetViews>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:26" s="1" customFormat="1">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+    </row>
+    <row r="2" spans="1:26" s="1" customFormat="1">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:Z2"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD9074B-585E-422E-A7B9-614538343EB0}">
-  <dimension ref="A1:Z102"/>
+  <dimension ref="A1:Z133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG101" sqref="AG101"/>
+    <sheetView topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE132" sqref="AE132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18"/>
@@ -7703,8 +7944,27 @@
       <c r="I102" s="154"/>
       <c r="J102" s="154"/>
     </row>
+    <row r="132" spans="2:10">
+      <c r="B132" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="2:10">
+      <c r="B133" s="153">
+        <v>45138</v>
+      </c>
+      <c r="C133" s="154"/>
+      <c r="D133" s="154"/>
+      <c r="E133" s="154"/>
+      <c r="F133" s="154"/>
+      <c r="G133" s="154"/>
+      <c r="H133" s="154"/>
+      <c r="I133" s="154"/>
+      <c r="J133" s="154"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B133:J133"/>
     <mergeCell ref="A1:Z2"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="B36:J36"/>
@@ -7718,7 +7978,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6682CA98-7577-4D54-B92C-C0D3FA4E16CE}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z2"/>
@@ -19328,6 +19588,1909 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612F7F92-E94F-4E75-81AE-63DB399137AC}">
+  <sheetPr>
+    <tabColor theme="4"/>
+  </sheetPr>
+  <dimension ref="A1:BC32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AZ5" sqref="AZ5:BC6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:55" s="1" customFormat="1">
+      <c r="A1" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
+    </row>
+    <row r="2" spans="1:55" s="1" customFormat="1">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+      <c r="S2" s="29"/>
+      <c r="T2" s="29"/>
+      <c r="U2" s="29"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="29"/>
+      <c r="X2" s="29"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="29"/>
+    </row>
+    <row r="4" spans="1:55">
+      <c r="B4" s="150" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150" t="s">
+        <v>130</v>
+      </c>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150" t="s">
+        <v>131</v>
+      </c>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="150" t="s">
+        <v>132</v>
+      </c>
+      <c r="O4" s="150"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="150"/>
+      <c r="R4" s="150" t="s">
+        <v>133</v>
+      </c>
+      <c r="S4" s="150"/>
+      <c r="T4" s="150"/>
+      <c r="U4" s="150"/>
+      <c r="V4" s="150"/>
+      <c r="W4" s="150"/>
+      <c r="X4" s="150"/>
+      <c r="Y4" s="150"/>
+      <c r="Z4" s="150"/>
+      <c r="AA4" s="150"/>
+      <c r="AB4" s="150"/>
+      <c r="AC4" s="150"/>
+      <c r="AD4" s="150"/>
+      <c r="AE4" s="150"/>
+      <c r="AF4" s="150"/>
+      <c r="AG4" s="150"/>
+      <c r="AH4" s="150"/>
+      <c r="AI4" s="150" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ4" s="150"/>
+      <c r="AK4" s="150"/>
+      <c r="AL4" s="150"/>
+      <c r="AM4" s="150"/>
+      <c r="AN4" s="150"/>
+      <c r="AO4" s="150"/>
+      <c r="AP4" s="150"/>
+      <c r="AQ4" s="150"/>
+      <c r="AR4" s="150"/>
+      <c r="AS4" s="150"/>
+      <c r="AT4" s="150"/>
+      <c r="AU4" s="150"/>
+      <c r="AV4" s="150"/>
+      <c r="AW4" s="150"/>
+      <c r="AX4" s="150"/>
+      <c r="AY4" s="150"/>
+      <c r="AZ4" s="150" t="s">
+        <v>135</v>
+      </c>
+      <c r="BA4" s="150"/>
+      <c r="BB4" s="150"/>
+      <c r="BC4" s="150"/>
+    </row>
+    <row r="5" spans="1:55">
+      <c r="B5" s="149">
+        <v>9201</v>
+      </c>
+      <c r="C5" s="149"/>
+      <c r="D5" s="149"/>
+      <c r="E5" s="149"/>
+      <c r="F5" s="152" t="s">
+        <v>145</v>
+      </c>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="149">
+        <v>1710</v>
+      </c>
+      <c r="K5" s="149"/>
+      <c r="L5" s="149"/>
+      <c r="M5" s="149"/>
+      <c r="N5" s="149">
+        <v>3061</v>
+      </c>
+      <c r="O5" s="149"/>
+      <c r="P5" s="149"/>
+      <c r="Q5" s="149"/>
+      <c r="R5" s="149" t="s">
+        <v>146</v>
+      </c>
+      <c r="S5" s="149"/>
+      <c r="T5" s="149"/>
+      <c r="U5" s="149"/>
+      <c r="V5" s="149"/>
+      <c r="W5" s="149"/>
+      <c r="X5" s="149"/>
+      <c r="Y5" s="149"/>
+      <c r="Z5" s="149"/>
+      <c r="AA5" s="149"/>
+      <c r="AB5" s="149"/>
+      <c r="AC5" s="149"/>
+      <c r="AD5" s="149"/>
+      <c r="AE5" s="149"/>
+      <c r="AF5" s="149"/>
+      <c r="AG5" s="149"/>
+      <c r="AH5" s="149"/>
+      <c r="AI5" s="151" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ5" s="149"/>
+      <c r="AK5" s="149"/>
+      <c r="AL5" s="149"/>
+      <c r="AM5" s="149"/>
+      <c r="AN5" s="149"/>
+      <c r="AO5" s="149"/>
+      <c r="AP5" s="149"/>
+      <c r="AQ5" s="149"/>
+      <c r="AR5" s="149"/>
+      <c r="AS5" s="149"/>
+      <c r="AT5" s="149"/>
+      <c r="AU5" s="149"/>
+      <c r="AV5" s="149"/>
+      <c r="AW5" s="149"/>
+      <c r="AX5" s="149"/>
+      <c r="AY5" s="149"/>
+      <c r="AZ5" s="149">
+        <f>N5-J5</f>
+        <v>1351</v>
+      </c>
+      <c r="BA5" s="149"/>
+      <c r="BB5" s="149"/>
+      <c r="BC5" s="149"/>
+    </row>
+    <row r="6" spans="1:55">
+      <c r="B6" s="149"/>
+      <c r="C6" s="149"/>
+      <c r="D6" s="149"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="149"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="149"/>
+      <c r="O6" s="149"/>
+      <c r="P6" s="149"/>
+      <c r="Q6" s="149"/>
+      <c r="R6" s="149"/>
+      <c r="S6" s="149"/>
+      <c r="T6" s="149"/>
+      <c r="U6" s="149"/>
+      <c r="V6" s="149"/>
+      <c r="W6" s="149"/>
+      <c r="X6" s="149"/>
+      <c r="Y6" s="149"/>
+      <c r="Z6" s="149"/>
+      <c r="AA6" s="149"/>
+      <c r="AB6" s="149"/>
+      <c r="AC6" s="149"/>
+      <c r="AD6" s="149"/>
+      <c r="AE6" s="149"/>
+      <c r="AF6" s="149"/>
+      <c r="AG6" s="149"/>
+      <c r="AH6" s="149"/>
+      <c r="AI6" s="149"/>
+      <c r="AJ6" s="149"/>
+      <c r="AK6" s="149"/>
+      <c r="AL6" s="149"/>
+      <c r="AM6" s="149"/>
+      <c r="AN6" s="149"/>
+      <c r="AO6" s="149"/>
+      <c r="AP6" s="149"/>
+      <c r="AQ6" s="149"/>
+      <c r="AR6" s="149"/>
+      <c r="AS6" s="149"/>
+      <c r="AT6" s="149"/>
+      <c r="AU6" s="149"/>
+      <c r="AV6" s="149"/>
+      <c r="AW6" s="149"/>
+      <c r="AX6" s="149"/>
+      <c r="AY6" s="149"/>
+      <c r="AZ6" s="149"/>
+      <c r="BA6" s="149"/>
+      <c r="BB6" s="149"/>
+      <c r="BC6" s="149"/>
+    </row>
+    <row r="7" spans="1:55" ht="18" customHeight="1">
+      <c r="B7" s="149">
+        <v>9684</v>
+      </c>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="152" t="s">
+        <v>142</v>
+      </c>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="149">
+        <v>6863</v>
+      </c>
+      <c r="K7" s="149"/>
+      <c r="L7" s="149"/>
+      <c r="M7" s="149"/>
+      <c r="N7" s="149">
+        <v>7251</v>
+      </c>
+      <c r="O7" s="149"/>
+      <c r="P7" s="149"/>
+      <c r="Q7" s="149"/>
+      <c r="R7" s="149" t="s">
+        <v>143</v>
+      </c>
+      <c r="S7" s="149"/>
+      <c r="T7" s="149"/>
+      <c r="U7" s="149"/>
+      <c r="V7" s="149"/>
+      <c r="W7" s="149"/>
+      <c r="X7" s="149"/>
+      <c r="Y7" s="149"/>
+      <c r="Z7" s="149"/>
+      <c r="AA7" s="149"/>
+      <c r="AB7" s="149"/>
+      <c r="AC7" s="149"/>
+      <c r="AD7" s="149"/>
+      <c r="AE7" s="149"/>
+      <c r="AF7" s="149"/>
+      <c r="AG7" s="149"/>
+      <c r="AH7" s="149"/>
+      <c r="AI7" s="151" t="s">
+        <v>144</v>
+      </c>
+      <c r="AJ7" s="149"/>
+      <c r="AK7" s="149"/>
+      <c r="AL7" s="149"/>
+      <c r="AM7" s="149"/>
+      <c r="AN7" s="149"/>
+      <c r="AO7" s="149"/>
+      <c r="AP7" s="149"/>
+      <c r="AQ7" s="149"/>
+      <c r="AR7" s="149"/>
+      <c r="AS7" s="149"/>
+      <c r="AT7" s="149"/>
+      <c r="AU7" s="149"/>
+      <c r="AV7" s="149"/>
+      <c r="AW7" s="149"/>
+      <c r="AX7" s="149"/>
+      <c r="AY7" s="149"/>
+      <c r="AZ7" s="149">
+        <f t="shared" ref="AZ7" si="0">N7-J7</f>
+        <v>388</v>
+      </c>
+      <c r="BA7" s="149"/>
+      <c r="BB7" s="149"/>
+      <c r="BC7" s="149"/>
+    </row>
+    <row r="8" spans="1:55">
+      <c r="B8" s="149"/>
+      <c r="C8" s="149"/>
+      <c r="D8" s="149"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="149"/>
+      <c r="K8" s="149"/>
+      <c r="L8" s="149"/>
+      <c r="M8" s="149"/>
+      <c r="N8" s="149"/>
+      <c r="O8" s="149"/>
+      <c r="P8" s="149"/>
+      <c r="Q8" s="149"/>
+      <c r="R8" s="149"/>
+      <c r="S8" s="149"/>
+      <c r="T8" s="149"/>
+      <c r="U8" s="149"/>
+      <c r="V8" s="149"/>
+      <c r="W8" s="149"/>
+      <c r="X8" s="149"/>
+      <c r="Y8" s="149"/>
+      <c r="Z8" s="149"/>
+      <c r="AA8" s="149"/>
+      <c r="AB8" s="149"/>
+      <c r="AC8" s="149"/>
+      <c r="AD8" s="149"/>
+      <c r="AE8" s="149"/>
+      <c r="AF8" s="149"/>
+      <c r="AG8" s="149"/>
+      <c r="AH8" s="149"/>
+      <c r="AI8" s="149"/>
+      <c r="AJ8" s="149"/>
+      <c r="AK8" s="149"/>
+      <c r="AL8" s="149"/>
+      <c r="AM8" s="149"/>
+      <c r="AN8" s="149"/>
+      <c r="AO8" s="149"/>
+      <c r="AP8" s="149"/>
+      <c r="AQ8" s="149"/>
+      <c r="AR8" s="149"/>
+      <c r="AS8" s="149"/>
+      <c r="AT8" s="149"/>
+      <c r="AU8" s="149"/>
+      <c r="AV8" s="149"/>
+      <c r="AW8" s="149"/>
+      <c r="AX8" s="149"/>
+      <c r="AY8" s="149"/>
+      <c r="AZ8" s="149"/>
+      <c r="BA8" s="149"/>
+      <c r="BB8" s="149"/>
+      <c r="BC8" s="149"/>
+    </row>
+    <row r="9" spans="1:55">
+      <c r="B9" s="149">
+        <v>9468</v>
+      </c>
+      <c r="C9" s="149"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="152" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="149"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="149">
+        <v>3500</v>
+      </c>
+      <c r="K9" s="149"/>
+      <c r="L9" s="149"/>
+      <c r="M9" s="149"/>
+      <c r="N9" s="149">
+        <v>3548</v>
+      </c>
+      <c r="O9" s="149"/>
+      <c r="P9" s="149"/>
+      <c r="Q9" s="149"/>
+      <c r="R9" s="149" t="s">
+        <v>140</v>
+      </c>
+      <c r="S9" s="149"/>
+      <c r="T9" s="149"/>
+      <c r="U9" s="149"/>
+      <c r="V9" s="149"/>
+      <c r="W9" s="149"/>
+      <c r="X9" s="149"/>
+      <c r="Y9" s="149"/>
+      <c r="Z9" s="149"/>
+      <c r="AA9" s="149"/>
+      <c r="AB9" s="149"/>
+      <c r="AC9" s="149"/>
+      <c r="AD9" s="149"/>
+      <c r="AE9" s="149"/>
+      <c r="AF9" s="149"/>
+      <c r="AG9" s="149"/>
+      <c r="AH9" s="149"/>
+      <c r="AI9" s="151" t="s">
+        <v>141</v>
+      </c>
+      <c r="AJ9" s="149"/>
+      <c r="AK9" s="149"/>
+      <c r="AL9" s="149"/>
+      <c r="AM9" s="149"/>
+      <c r="AN9" s="149"/>
+      <c r="AO9" s="149"/>
+      <c r="AP9" s="149"/>
+      <c r="AQ9" s="149"/>
+      <c r="AR9" s="149"/>
+      <c r="AS9" s="149"/>
+      <c r="AT9" s="149"/>
+      <c r="AU9" s="149"/>
+      <c r="AV9" s="149"/>
+      <c r="AW9" s="149"/>
+      <c r="AX9" s="149"/>
+      <c r="AY9" s="149"/>
+      <c r="AZ9" s="149">
+        <f t="shared" ref="AZ9" si="1">N9-J9</f>
+        <v>48</v>
+      </c>
+      <c r="BA9" s="149"/>
+      <c r="BB9" s="149"/>
+      <c r="BC9" s="149"/>
+    </row>
+    <row r="10" spans="1:55">
+      <c r="B10" s="149"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="149"/>
+      <c r="K10" s="149"/>
+      <c r="L10" s="149"/>
+      <c r="M10" s="149"/>
+      <c r="N10" s="149"/>
+      <c r="O10" s="149"/>
+      <c r="P10" s="149"/>
+      <c r="Q10" s="149"/>
+      <c r="R10" s="149"/>
+      <c r="S10" s="149"/>
+      <c r="T10" s="149"/>
+      <c r="U10" s="149"/>
+      <c r="V10" s="149"/>
+      <c r="W10" s="149"/>
+      <c r="X10" s="149"/>
+      <c r="Y10" s="149"/>
+      <c r="Z10" s="149"/>
+      <c r="AA10" s="149"/>
+      <c r="AB10" s="149"/>
+      <c r="AC10" s="149"/>
+      <c r="AD10" s="149"/>
+      <c r="AE10" s="149"/>
+      <c r="AF10" s="149"/>
+      <c r="AG10" s="149"/>
+      <c r="AH10" s="149"/>
+      <c r="AI10" s="149"/>
+      <c r="AJ10" s="149"/>
+      <c r="AK10" s="149"/>
+      <c r="AL10" s="149"/>
+      <c r="AM10" s="149"/>
+      <c r="AN10" s="149"/>
+      <c r="AO10" s="149"/>
+      <c r="AP10" s="149"/>
+      <c r="AQ10" s="149"/>
+      <c r="AR10" s="149"/>
+      <c r="AS10" s="149"/>
+      <c r="AT10" s="149"/>
+      <c r="AU10" s="149"/>
+      <c r="AV10" s="149"/>
+      <c r="AW10" s="149"/>
+      <c r="AX10" s="149"/>
+      <c r="AY10" s="149"/>
+      <c r="AZ10" s="149"/>
+      <c r="BA10" s="149"/>
+      <c r="BB10" s="149"/>
+      <c r="BC10" s="149"/>
+    </row>
+    <row r="11" spans="1:55">
+      <c r="B11" s="149"/>
+      <c r="C11" s="149"/>
+      <c r="D11" s="149"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="149"/>
+      <c r="K11" s="149"/>
+      <c r="L11" s="149"/>
+      <c r="M11" s="149"/>
+      <c r="N11" s="149"/>
+      <c r="O11" s="149"/>
+      <c r="P11" s="149"/>
+      <c r="Q11" s="149"/>
+      <c r="R11" s="149"/>
+      <c r="S11" s="149"/>
+      <c r="T11" s="149"/>
+      <c r="U11" s="149"/>
+      <c r="V11" s="149"/>
+      <c r="W11" s="149"/>
+      <c r="X11" s="149"/>
+      <c r="Y11" s="149"/>
+      <c r="Z11" s="149"/>
+      <c r="AA11" s="149"/>
+      <c r="AB11" s="149"/>
+      <c r="AC11" s="149"/>
+      <c r="AD11" s="149"/>
+      <c r="AE11" s="149"/>
+      <c r="AF11" s="149"/>
+      <c r="AG11" s="149"/>
+      <c r="AH11" s="149"/>
+      <c r="AI11" s="149"/>
+      <c r="AJ11" s="149"/>
+      <c r="AK11" s="149"/>
+      <c r="AL11" s="149"/>
+      <c r="AM11" s="149"/>
+      <c r="AN11" s="149"/>
+      <c r="AO11" s="149"/>
+      <c r="AP11" s="149"/>
+      <c r="AQ11" s="149"/>
+      <c r="AR11" s="149"/>
+      <c r="AS11" s="149"/>
+      <c r="AT11" s="149"/>
+      <c r="AU11" s="149"/>
+      <c r="AV11" s="149"/>
+      <c r="AW11" s="149"/>
+      <c r="AX11" s="149"/>
+      <c r="AY11" s="149"/>
+      <c r="AZ11" s="149">
+        <f t="shared" ref="AZ11" si="2">N11-J11</f>
+        <v>0</v>
+      </c>
+      <c r="BA11" s="149"/>
+      <c r="BB11" s="149"/>
+      <c r="BC11" s="149"/>
+    </row>
+    <row r="12" spans="1:55">
+      <c r="B12" s="149"/>
+      <c r="C12" s="149"/>
+      <c r="D12" s="149"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="149"/>
+      <c r="K12" s="149"/>
+      <c r="L12" s="149"/>
+      <c r="M12" s="149"/>
+      <c r="N12" s="149"/>
+      <c r="O12" s="149"/>
+      <c r="P12" s="149"/>
+      <c r="Q12" s="149"/>
+      <c r="R12" s="149"/>
+      <c r="S12" s="149"/>
+      <c r="T12" s="149"/>
+      <c r="U12" s="149"/>
+      <c r="V12" s="149"/>
+      <c r="W12" s="149"/>
+      <c r="X12" s="149"/>
+      <c r="Y12" s="149"/>
+      <c r="Z12" s="149"/>
+      <c r="AA12" s="149"/>
+      <c r="AB12" s="149"/>
+      <c r="AC12" s="149"/>
+      <c r="AD12" s="149"/>
+      <c r="AE12" s="149"/>
+      <c r="AF12" s="149"/>
+      <c r="AG12" s="149"/>
+      <c r="AH12" s="149"/>
+      <c r="AI12" s="149"/>
+      <c r="AJ12" s="149"/>
+      <c r="AK12" s="149"/>
+      <c r="AL12" s="149"/>
+      <c r="AM12" s="149"/>
+      <c r="AN12" s="149"/>
+      <c r="AO12" s="149"/>
+      <c r="AP12" s="149"/>
+      <c r="AQ12" s="149"/>
+      <c r="AR12" s="149"/>
+      <c r="AS12" s="149"/>
+      <c r="AT12" s="149"/>
+      <c r="AU12" s="149"/>
+      <c r="AV12" s="149"/>
+      <c r="AW12" s="149"/>
+      <c r="AX12" s="149"/>
+      <c r="AY12" s="149"/>
+      <c r="AZ12" s="149"/>
+      <c r="BA12" s="149"/>
+      <c r="BB12" s="149"/>
+      <c r="BC12" s="149"/>
+    </row>
+    <row r="13" spans="1:55">
+      <c r="B13" s="149"/>
+      <c r="C13" s="149"/>
+      <c r="D13" s="149"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="149"/>
+      <c r="K13" s="149"/>
+      <c r="L13" s="149"/>
+      <c r="M13" s="149"/>
+      <c r="N13" s="149"/>
+      <c r="O13" s="149"/>
+      <c r="P13" s="149"/>
+      <c r="Q13" s="149"/>
+      <c r="R13" s="149"/>
+      <c r="S13" s="149"/>
+      <c r="T13" s="149"/>
+      <c r="U13" s="149"/>
+      <c r="V13" s="149"/>
+      <c r="W13" s="149"/>
+      <c r="X13" s="149"/>
+      <c r="Y13" s="149"/>
+      <c r="Z13" s="149"/>
+      <c r="AA13" s="149"/>
+      <c r="AB13" s="149"/>
+      <c r="AC13" s="149"/>
+      <c r="AD13" s="149"/>
+      <c r="AE13" s="149"/>
+      <c r="AF13" s="149"/>
+      <c r="AG13" s="149"/>
+      <c r="AH13" s="149"/>
+      <c r="AI13" s="149"/>
+      <c r="AJ13" s="149"/>
+      <c r="AK13" s="149"/>
+      <c r="AL13" s="149"/>
+      <c r="AM13" s="149"/>
+      <c r="AN13" s="149"/>
+      <c r="AO13" s="149"/>
+      <c r="AP13" s="149"/>
+      <c r="AQ13" s="149"/>
+      <c r="AR13" s="149"/>
+      <c r="AS13" s="149"/>
+      <c r="AT13" s="149"/>
+      <c r="AU13" s="149"/>
+      <c r="AV13" s="149"/>
+      <c r="AW13" s="149"/>
+      <c r="AX13" s="149"/>
+      <c r="AY13" s="149"/>
+      <c r="AZ13" s="149">
+        <f t="shared" ref="AZ13" si="3">N13-J13</f>
+        <v>0</v>
+      </c>
+      <c r="BA13" s="149"/>
+      <c r="BB13" s="149"/>
+      <c r="BC13" s="149"/>
+    </row>
+    <row r="14" spans="1:55">
+      <c r="B14" s="149"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="149"/>
+      <c r="J14" s="149"/>
+      <c r="K14" s="149"/>
+      <c r="L14" s="149"/>
+      <c r="M14" s="149"/>
+      <c r="N14" s="149"/>
+      <c r="O14" s="149"/>
+      <c r="P14" s="149"/>
+      <c r="Q14" s="149"/>
+      <c r="R14" s="149"/>
+      <c r="S14" s="149"/>
+      <c r="T14" s="149"/>
+      <c r="U14" s="149"/>
+      <c r="V14" s="149"/>
+      <c r="W14" s="149"/>
+      <c r="X14" s="149"/>
+      <c r="Y14" s="149"/>
+      <c r="Z14" s="149"/>
+      <c r="AA14" s="149"/>
+      <c r="AB14" s="149"/>
+      <c r="AC14" s="149"/>
+      <c r="AD14" s="149"/>
+      <c r="AE14" s="149"/>
+      <c r="AF14" s="149"/>
+      <c r="AG14" s="149"/>
+      <c r="AH14" s="149"/>
+      <c r="AI14" s="149"/>
+      <c r="AJ14" s="149"/>
+      <c r="AK14" s="149"/>
+      <c r="AL14" s="149"/>
+      <c r="AM14" s="149"/>
+      <c r="AN14" s="149"/>
+      <c r="AO14" s="149"/>
+      <c r="AP14" s="149"/>
+      <c r="AQ14" s="149"/>
+      <c r="AR14" s="149"/>
+      <c r="AS14" s="149"/>
+      <c r="AT14" s="149"/>
+      <c r="AU14" s="149"/>
+      <c r="AV14" s="149"/>
+      <c r="AW14" s="149"/>
+      <c r="AX14" s="149"/>
+      <c r="AY14" s="149"/>
+      <c r="AZ14" s="149"/>
+      <c r="BA14" s="149"/>
+      <c r="BB14" s="149"/>
+      <c r="BC14" s="149"/>
+    </row>
+    <row r="15" spans="1:55">
+      <c r="B15" s="149"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="149"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="149"/>
+      <c r="J15" s="149"/>
+      <c r="K15" s="149"/>
+      <c r="L15" s="149"/>
+      <c r="M15" s="149"/>
+      <c r="N15" s="149"/>
+      <c r="O15" s="149"/>
+      <c r="P15" s="149"/>
+      <c r="Q15" s="149"/>
+      <c r="R15" s="149"/>
+      <c r="S15" s="149"/>
+      <c r="T15" s="149"/>
+      <c r="U15" s="149"/>
+      <c r="V15" s="149"/>
+      <c r="W15" s="149"/>
+      <c r="X15" s="149"/>
+      <c r="Y15" s="149"/>
+      <c r="Z15" s="149"/>
+      <c r="AA15" s="149"/>
+      <c r="AB15" s="149"/>
+      <c r="AC15" s="149"/>
+      <c r="AD15" s="149"/>
+      <c r="AE15" s="149"/>
+      <c r="AF15" s="149"/>
+      <c r="AG15" s="149"/>
+      <c r="AH15" s="149"/>
+      <c r="AI15" s="149"/>
+      <c r="AJ15" s="149"/>
+      <c r="AK15" s="149"/>
+      <c r="AL15" s="149"/>
+      <c r="AM15" s="149"/>
+      <c r="AN15" s="149"/>
+      <c r="AO15" s="149"/>
+      <c r="AP15" s="149"/>
+      <c r="AQ15" s="149"/>
+      <c r="AR15" s="149"/>
+      <c r="AS15" s="149"/>
+      <c r="AT15" s="149"/>
+      <c r="AU15" s="149"/>
+      <c r="AV15" s="149"/>
+      <c r="AW15" s="149"/>
+      <c r="AX15" s="149"/>
+      <c r="AY15" s="149"/>
+      <c r="AZ15" s="149">
+        <f t="shared" ref="AZ15" si="4">N15-J15</f>
+        <v>0</v>
+      </c>
+      <c r="BA15" s="149"/>
+      <c r="BB15" s="149"/>
+      <c r="BC15" s="149"/>
+    </row>
+    <row r="16" spans="1:55">
+      <c r="B16" s="149"/>
+      <c r="C16" s="149"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="149"/>
+      <c r="K16" s="149"/>
+      <c r="L16" s="149"/>
+      <c r="M16" s="149"/>
+      <c r="N16" s="149"/>
+      <c r="O16" s="149"/>
+      <c r="P16" s="149"/>
+      <c r="Q16" s="149"/>
+      <c r="R16" s="149"/>
+      <c r="S16" s="149"/>
+      <c r="T16" s="149"/>
+      <c r="U16" s="149"/>
+      <c r="V16" s="149"/>
+      <c r="W16" s="149"/>
+      <c r="X16" s="149"/>
+      <c r="Y16" s="149"/>
+      <c r="Z16" s="149"/>
+      <c r="AA16" s="149"/>
+      <c r="AB16" s="149"/>
+      <c r="AC16" s="149"/>
+      <c r="AD16" s="149"/>
+      <c r="AE16" s="149"/>
+      <c r="AF16" s="149"/>
+      <c r="AG16" s="149"/>
+      <c r="AH16" s="149"/>
+      <c r="AI16" s="149"/>
+      <c r="AJ16" s="149"/>
+      <c r="AK16" s="149"/>
+      <c r="AL16" s="149"/>
+      <c r="AM16" s="149"/>
+      <c r="AN16" s="149"/>
+      <c r="AO16" s="149"/>
+      <c r="AP16" s="149"/>
+      <c r="AQ16" s="149"/>
+      <c r="AR16" s="149"/>
+      <c r="AS16" s="149"/>
+      <c r="AT16" s="149"/>
+      <c r="AU16" s="149"/>
+      <c r="AV16" s="149"/>
+      <c r="AW16" s="149"/>
+      <c r="AX16" s="149"/>
+      <c r="AY16" s="149"/>
+      <c r="AZ16" s="149"/>
+      <c r="BA16" s="149"/>
+      <c r="BB16" s="149"/>
+      <c r="BC16" s="149"/>
+    </row>
+    <row r="17" spans="2:55">
+      <c r="B17" s="149"/>
+      <c r="C17" s="149"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="149"/>
+      <c r="K17" s="149"/>
+      <c r="L17" s="149"/>
+      <c r="M17" s="149"/>
+      <c r="N17" s="149"/>
+      <c r="O17" s="149"/>
+      <c r="P17" s="149"/>
+      <c r="Q17" s="149"/>
+      <c r="R17" s="149"/>
+      <c r="S17" s="149"/>
+      <c r="T17" s="149"/>
+      <c r="U17" s="149"/>
+      <c r="V17" s="149"/>
+      <c r="W17" s="149"/>
+      <c r="X17" s="149"/>
+      <c r="Y17" s="149"/>
+      <c r="Z17" s="149"/>
+      <c r="AA17" s="149"/>
+      <c r="AB17" s="149"/>
+      <c r="AC17" s="149"/>
+      <c r="AD17" s="149"/>
+      <c r="AE17" s="149"/>
+      <c r="AF17" s="149"/>
+      <c r="AG17" s="149"/>
+      <c r="AH17" s="149"/>
+      <c r="AI17" s="149"/>
+      <c r="AJ17" s="149"/>
+      <c r="AK17" s="149"/>
+      <c r="AL17" s="149"/>
+      <c r="AM17" s="149"/>
+      <c r="AN17" s="149"/>
+      <c r="AO17" s="149"/>
+      <c r="AP17" s="149"/>
+      <c r="AQ17" s="149"/>
+      <c r="AR17" s="149"/>
+      <c r="AS17" s="149"/>
+      <c r="AT17" s="149"/>
+      <c r="AU17" s="149"/>
+      <c r="AV17" s="149"/>
+      <c r="AW17" s="149"/>
+      <c r="AX17" s="149"/>
+      <c r="AY17" s="149"/>
+      <c r="AZ17" s="149">
+        <f t="shared" ref="AZ17" si="5">N17-J17</f>
+        <v>0</v>
+      </c>
+      <c r="BA17" s="149"/>
+      <c r="BB17" s="149"/>
+      <c r="BC17" s="149"/>
+    </row>
+    <row r="18" spans="2:55">
+      <c r="B18" s="149"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="149"/>
+      <c r="K18" s="149"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="149"/>
+      <c r="N18" s="149"/>
+      <c r="O18" s="149"/>
+      <c r="P18" s="149"/>
+      <c r="Q18" s="149"/>
+      <c r="R18" s="149"/>
+      <c r="S18" s="149"/>
+      <c r="T18" s="149"/>
+      <c r="U18" s="149"/>
+      <c r="V18" s="149"/>
+      <c r="W18" s="149"/>
+      <c r="X18" s="149"/>
+      <c r="Y18" s="149"/>
+      <c r="Z18" s="149"/>
+      <c r="AA18" s="149"/>
+      <c r="AB18" s="149"/>
+      <c r="AC18" s="149"/>
+      <c r="AD18" s="149"/>
+      <c r="AE18" s="149"/>
+      <c r="AF18" s="149"/>
+      <c r="AG18" s="149"/>
+      <c r="AH18" s="149"/>
+      <c r="AI18" s="149"/>
+      <c r="AJ18" s="149"/>
+      <c r="AK18" s="149"/>
+      <c r="AL18" s="149"/>
+      <c r="AM18" s="149"/>
+      <c r="AN18" s="149"/>
+      <c r="AO18" s="149"/>
+      <c r="AP18" s="149"/>
+      <c r="AQ18" s="149"/>
+      <c r="AR18" s="149"/>
+      <c r="AS18" s="149"/>
+      <c r="AT18" s="149"/>
+      <c r="AU18" s="149"/>
+      <c r="AV18" s="149"/>
+      <c r="AW18" s="149"/>
+      <c r="AX18" s="149"/>
+      <c r="AY18" s="149"/>
+      <c r="AZ18" s="149"/>
+      <c r="BA18" s="149"/>
+      <c r="BB18" s="149"/>
+      <c r="BC18" s="149"/>
+    </row>
+    <row r="19" spans="2:55">
+      <c r="B19" s="149"/>
+      <c r="C19" s="149"/>
+      <c r="D19" s="149"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="149"/>
+      <c r="J19" s="149"/>
+      <c r="K19" s="149"/>
+      <c r="L19" s="149"/>
+      <c r="M19" s="149"/>
+      <c r="N19" s="149"/>
+      <c r="O19" s="149"/>
+      <c r="P19" s="149"/>
+      <c r="Q19" s="149"/>
+      <c r="R19" s="149"/>
+      <c r="S19" s="149"/>
+      <c r="T19" s="149"/>
+      <c r="U19" s="149"/>
+      <c r="V19" s="149"/>
+      <c r="W19" s="149"/>
+      <c r="X19" s="149"/>
+      <c r="Y19" s="149"/>
+      <c r="Z19" s="149"/>
+      <c r="AA19" s="149"/>
+      <c r="AB19" s="149"/>
+      <c r="AC19" s="149"/>
+      <c r="AD19" s="149"/>
+      <c r="AE19" s="149"/>
+      <c r="AF19" s="149"/>
+      <c r="AG19" s="149"/>
+      <c r="AH19" s="149"/>
+      <c r="AI19" s="149"/>
+      <c r="AJ19" s="149"/>
+      <c r="AK19" s="149"/>
+      <c r="AL19" s="149"/>
+      <c r="AM19" s="149"/>
+      <c r="AN19" s="149"/>
+      <c r="AO19" s="149"/>
+      <c r="AP19" s="149"/>
+      <c r="AQ19" s="149"/>
+      <c r="AR19" s="149"/>
+      <c r="AS19" s="149"/>
+      <c r="AT19" s="149"/>
+      <c r="AU19" s="149"/>
+      <c r="AV19" s="149"/>
+      <c r="AW19" s="149"/>
+      <c r="AX19" s="149"/>
+      <c r="AY19" s="149"/>
+      <c r="AZ19" s="149">
+        <f t="shared" ref="AZ19" si="6">N19-J19</f>
+        <v>0</v>
+      </c>
+      <c r="BA19" s="149"/>
+      <c r="BB19" s="149"/>
+      <c r="BC19" s="149"/>
+    </row>
+    <row r="20" spans="2:55">
+      <c r="B20" s="149"/>
+      <c r="C20" s="149"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="149"/>
+      <c r="K20" s="149"/>
+      <c r="L20" s="149"/>
+      <c r="M20" s="149"/>
+      <c r="N20" s="149"/>
+      <c r="O20" s="149"/>
+      <c r="P20" s="149"/>
+      <c r="Q20" s="149"/>
+      <c r="R20" s="149"/>
+      <c r="S20" s="149"/>
+      <c r="T20" s="149"/>
+      <c r="U20" s="149"/>
+      <c r="V20" s="149"/>
+      <c r="W20" s="149"/>
+      <c r="X20" s="149"/>
+      <c r="Y20" s="149"/>
+      <c r="Z20" s="149"/>
+      <c r="AA20" s="149"/>
+      <c r="AB20" s="149"/>
+      <c r="AC20" s="149"/>
+      <c r="AD20" s="149"/>
+      <c r="AE20" s="149"/>
+      <c r="AF20" s="149"/>
+      <c r="AG20" s="149"/>
+      <c r="AH20" s="149"/>
+      <c r="AI20" s="149"/>
+      <c r="AJ20" s="149"/>
+      <c r="AK20" s="149"/>
+      <c r="AL20" s="149"/>
+      <c r="AM20" s="149"/>
+      <c r="AN20" s="149"/>
+      <c r="AO20" s="149"/>
+      <c r="AP20" s="149"/>
+      <c r="AQ20" s="149"/>
+      <c r="AR20" s="149"/>
+      <c r="AS20" s="149"/>
+      <c r="AT20" s="149"/>
+      <c r="AU20" s="149"/>
+      <c r="AV20" s="149"/>
+      <c r="AW20" s="149"/>
+      <c r="AX20" s="149"/>
+      <c r="AY20" s="149"/>
+      <c r="AZ20" s="149"/>
+      <c r="BA20" s="149"/>
+      <c r="BB20" s="149"/>
+      <c r="BC20" s="149"/>
+    </row>
+    <row r="21" spans="2:55">
+      <c r="B21" s="149"/>
+      <c r="C21" s="149"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="149"/>
+      <c r="K21" s="149"/>
+      <c r="L21" s="149"/>
+      <c r="M21" s="149"/>
+      <c r="N21" s="149"/>
+      <c r="O21" s="149"/>
+      <c r="P21" s="149"/>
+      <c r="Q21" s="149"/>
+      <c r="R21" s="149"/>
+      <c r="S21" s="149"/>
+      <c r="T21" s="149"/>
+      <c r="U21" s="149"/>
+      <c r="V21" s="149"/>
+      <c r="W21" s="149"/>
+      <c r="X21" s="149"/>
+      <c r="Y21" s="149"/>
+      <c r="Z21" s="149"/>
+      <c r="AA21" s="149"/>
+      <c r="AB21" s="149"/>
+      <c r="AC21" s="149"/>
+      <c r="AD21" s="149"/>
+      <c r="AE21" s="149"/>
+      <c r="AF21" s="149"/>
+      <c r="AG21" s="149"/>
+      <c r="AH21" s="149"/>
+      <c r="AI21" s="149"/>
+      <c r="AJ21" s="149"/>
+      <c r="AK21" s="149"/>
+      <c r="AL21" s="149"/>
+      <c r="AM21" s="149"/>
+      <c r="AN21" s="149"/>
+      <c r="AO21" s="149"/>
+      <c r="AP21" s="149"/>
+      <c r="AQ21" s="149"/>
+      <c r="AR21" s="149"/>
+      <c r="AS21" s="149"/>
+      <c r="AT21" s="149"/>
+      <c r="AU21" s="149"/>
+      <c r="AV21" s="149"/>
+      <c r="AW21" s="149"/>
+      <c r="AX21" s="149"/>
+      <c r="AY21" s="149"/>
+      <c r="AZ21" s="149">
+        <f t="shared" ref="AZ21" si="7">N21-J21</f>
+        <v>0</v>
+      </c>
+      <c r="BA21" s="149"/>
+      <c r="BB21" s="149"/>
+      <c r="BC21" s="149"/>
+    </row>
+    <row r="22" spans="2:55">
+      <c r="B22" s="149"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="149"/>
+      <c r="J22" s="149"/>
+      <c r="K22" s="149"/>
+      <c r="L22" s="149"/>
+      <c r="M22" s="149"/>
+      <c r="N22" s="149"/>
+      <c r="O22" s="149"/>
+      <c r="P22" s="149"/>
+      <c r="Q22" s="149"/>
+      <c r="R22" s="149"/>
+      <c r="S22" s="149"/>
+      <c r="T22" s="149"/>
+      <c r="U22" s="149"/>
+      <c r="V22" s="149"/>
+      <c r="W22" s="149"/>
+      <c r="X22" s="149"/>
+      <c r="Y22" s="149"/>
+      <c r="Z22" s="149"/>
+      <c r="AA22" s="149"/>
+      <c r="AB22" s="149"/>
+      <c r="AC22" s="149"/>
+      <c r="AD22" s="149"/>
+      <c r="AE22" s="149"/>
+      <c r="AF22" s="149"/>
+      <c r="AG22" s="149"/>
+      <c r="AH22" s="149"/>
+      <c r="AI22" s="149"/>
+      <c r="AJ22" s="149"/>
+      <c r="AK22" s="149"/>
+      <c r="AL22" s="149"/>
+      <c r="AM22" s="149"/>
+      <c r="AN22" s="149"/>
+      <c r="AO22" s="149"/>
+      <c r="AP22" s="149"/>
+      <c r="AQ22" s="149"/>
+      <c r="AR22" s="149"/>
+      <c r="AS22" s="149"/>
+      <c r="AT22" s="149"/>
+      <c r="AU22" s="149"/>
+      <c r="AV22" s="149"/>
+      <c r="AW22" s="149"/>
+      <c r="AX22" s="149"/>
+      <c r="AY22" s="149"/>
+      <c r="AZ22" s="149"/>
+      <c r="BA22" s="149"/>
+      <c r="BB22" s="149"/>
+      <c r="BC22" s="149"/>
+    </row>
+    <row r="23" spans="2:55">
+      <c r="B23" s="149"/>
+      <c r="C23" s="149"/>
+      <c r="D23" s="149"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="149"/>
+      <c r="J23" s="149"/>
+      <c r="K23" s="149"/>
+      <c r="L23" s="149"/>
+      <c r="M23" s="149"/>
+      <c r="N23" s="149"/>
+      <c r="O23" s="149"/>
+      <c r="P23" s="149"/>
+      <c r="Q23" s="149"/>
+      <c r="R23" s="149"/>
+      <c r="S23" s="149"/>
+      <c r="T23" s="149"/>
+      <c r="U23" s="149"/>
+      <c r="V23" s="149"/>
+      <c r="W23" s="149"/>
+      <c r="X23" s="149"/>
+      <c r="Y23" s="149"/>
+      <c r="Z23" s="149"/>
+      <c r="AA23" s="149"/>
+      <c r="AB23" s="149"/>
+      <c r="AC23" s="149"/>
+      <c r="AD23" s="149"/>
+      <c r="AE23" s="149"/>
+      <c r="AF23" s="149"/>
+      <c r="AG23" s="149"/>
+      <c r="AH23" s="149"/>
+      <c r="AI23" s="149"/>
+      <c r="AJ23" s="149"/>
+      <c r="AK23" s="149"/>
+      <c r="AL23" s="149"/>
+      <c r="AM23" s="149"/>
+      <c r="AN23" s="149"/>
+      <c r="AO23" s="149"/>
+      <c r="AP23" s="149"/>
+      <c r="AQ23" s="149"/>
+      <c r="AR23" s="149"/>
+      <c r="AS23" s="149"/>
+      <c r="AT23" s="149"/>
+      <c r="AU23" s="149"/>
+      <c r="AV23" s="149"/>
+      <c r="AW23" s="149"/>
+      <c r="AX23" s="149"/>
+      <c r="AY23" s="149"/>
+      <c r="AZ23" s="149">
+        <f t="shared" ref="AZ23" si="8">N23-J23</f>
+        <v>0</v>
+      </c>
+      <c r="BA23" s="149"/>
+      <c r="BB23" s="149"/>
+      <c r="BC23" s="149"/>
+    </row>
+    <row r="24" spans="2:55">
+      <c r="B24" s="149"/>
+      <c r="C24" s="149"/>
+      <c r="D24" s="149"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="149"/>
+      <c r="J24" s="149"/>
+      <c r="K24" s="149"/>
+      <c r="L24" s="149"/>
+      <c r="M24" s="149"/>
+      <c r="N24" s="149"/>
+      <c r="O24" s="149"/>
+      <c r="P24" s="149"/>
+      <c r="Q24" s="149"/>
+      <c r="R24" s="149"/>
+      <c r="S24" s="149"/>
+      <c r="T24" s="149"/>
+      <c r="U24" s="149"/>
+      <c r="V24" s="149"/>
+      <c r="W24" s="149"/>
+      <c r="X24" s="149"/>
+      <c r="Y24" s="149"/>
+      <c r="Z24" s="149"/>
+      <c r="AA24" s="149"/>
+      <c r="AB24" s="149"/>
+      <c r="AC24" s="149"/>
+      <c r="AD24" s="149"/>
+      <c r="AE24" s="149"/>
+      <c r="AF24" s="149"/>
+      <c r="AG24" s="149"/>
+      <c r="AH24" s="149"/>
+      <c r="AI24" s="149"/>
+      <c r="AJ24" s="149"/>
+      <c r="AK24" s="149"/>
+      <c r="AL24" s="149"/>
+      <c r="AM24" s="149"/>
+      <c r="AN24" s="149"/>
+      <c r="AO24" s="149"/>
+      <c r="AP24" s="149"/>
+      <c r="AQ24" s="149"/>
+      <c r="AR24" s="149"/>
+      <c r="AS24" s="149"/>
+      <c r="AT24" s="149"/>
+      <c r="AU24" s="149"/>
+      <c r="AV24" s="149"/>
+      <c r="AW24" s="149"/>
+      <c r="AX24" s="149"/>
+      <c r="AY24" s="149"/>
+      <c r="AZ24" s="149"/>
+      <c r="BA24" s="149"/>
+      <c r="BB24" s="149"/>
+      <c r="BC24" s="149"/>
+    </row>
+    <row r="25" spans="2:55">
+      <c r="B25" s="149"/>
+      <c r="C25" s="149"/>
+      <c r="D25" s="149"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="149"/>
+      <c r="N25" s="149"/>
+      <c r="O25" s="149"/>
+      <c r="P25" s="149"/>
+      <c r="Q25" s="149"/>
+      <c r="R25" s="149"/>
+      <c r="S25" s="149"/>
+      <c r="T25" s="149"/>
+      <c r="U25" s="149"/>
+      <c r="V25" s="149"/>
+      <c r="W25" s="149"/>
+      <c r="X25" s="149"/>
+      <c r="Y25" s="149"/>
+      <c r="Z25" s="149"/>
+      <c r="AA25" s="149"/>
+      <c r="AB25" s="149"/>
+      <c r="AC25" s="149"/>
+      <c r="AD25" s="149"/>
+      <c r="AE25" s="149"/>
+      <c r="AF25" s="149"/>
+      <c r="AG25" s="149"/>
+      <c r="AH25" s="149"/>
+      <c r="AI25" s="149"/>
+      <c r="AJ25" s="149"/>
+      <c r="AK25" s="149"/>
+      <c r="AL25" s="149"/>
+      <c r="AM25" s="149"/>
+      <c r="AN25" s="149"/>
+      <c r="AO25" s="149"/>
+      <c r="AP25" s="149"/>
+      <c r="AQ25" s="149"/>
+      <c r="AR25" s="149"/>
+      <c r="AS25" s="149"/>
+      <c r="AT25" s="149"/>
+      <c r="AU25" s="149"/>
+      <c r="AV25" s="149"/>
+      <c r="AW25" s="149"/>
+      <c r="AX25" s="149"/>
+      <c r="AY25" s="149"/>
+      <c r="AZ25" s="149">
+        <f t="shared" ref="AZ25" si="9">N25-J25</f>
+        <v>0</v>
+      </c>
+      <c r="BA25" s="149"/>
+      <c r="BB25" s="149"/>
+      <c r="BC25" s="149"/>
+    </row>
+    <row r="26" spans="2:55">
+      <c r="B26" s="149"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
+      <c r="N26" s="149"/>
+      <c r="O26" s="149"/>
+      <c r="P26" s="149"/>
+      <c r="Q26" s="149"/>
+      <c r="R26" s="149"/>
+      <c r="S26" s="149"/>
+      <c r="T26" s="149"/>
+      <c r="U26" s="149"/>
+      <c r="V26" s="149"/>
+      <c r="W26" s="149"/>
+      <c r="X26" s="149"/>
+      <c r="Y26" s="149"/>
+      <c r="Z26" s="149"/>
+      <c r="AA26" s="149"/>
+      <c r="AB26" s="149"/>
+      <c r="AC26" s="149"/>
+      <c r="AD26" s="149"/>
+      <c r="AE26" s="149"/>
+      <c r="AF26" s="149"/>
+      <c r="AG26" s="149"/>
+      <c r="AH26" s="149"/>
+      <c r="AI26" s="149"/>
+      <c r="AJ26" s="149"/>
+      <c r="AK26" s="149"/>
+      <c r="AL26" s="149"/>
+      <c r="AM26" s="149"/>
+      <c r="AN26" s="149"/>
+      <c r="AO26" s="149"/>
+      <c r="AP26" s="149"/>
+      <c r="AQ26" s="149"/>
+      <c r="AR26" s="149"/>
+      <c r="AS26" s="149"/>
+      <c r="AT26" s="149"/>
+      <c r="AU26" s="149"/>
+      <c r="AV26" s="149"/>
+      <c r="AW26" s="149"/>
+      <c r="AX26" s="149"/>
+      <c r="AY26" s="149"/>
+      <c r="AZ26" s="149"/>
+      <c r="BA26" s="149"/>
+      <c r="BB26" s="149"/>
+      <c r="BC26" s="149"/>
+    </row>
+    <row r="27" spans="2:55">
+      <c r="B27" s="149"/>
+      <c r="C27" s="149"/>
+      <c r="D27" s="149"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
+      <c r="N27" s="149"/>
+      <c r="O27" s="149"/>
+      <c r="P27" s="149"/>
+      <c r="Q27" s="149"/>
+      <c r="R27" s="149"/>
+      <c r="S27" s="149"/>
+      <c r="T27" s="149"/>
+      <c r="U27" s="149"/>
+      <c r="V27" s="149"/>
+      <c r="W27" s="149"/>
+      <c r="X27" s="149"/>
+      <c r="Y27" s="149"/>
+      <c r="Z27" s="149"/>
+      <c r="AA27" s="149"/>
+      <c r="AB27" s="149"/>
+      <c r="AC27" s="149"/>
+      <c r="AD27" s="149"/>
+      <c r="AE27" s="149"/>
+      <c r="AF27" s="149"/>
+      <c r="AG27" s="149"/>
+      <c r="AH27" s="149"/>
+      <c r="AI27" s="149"/>
+      <c r="AJ27" s="149"/>
+      <c r="AK27" s="149"/>
+      <c r="AL27" s="149"/>
+      <c r="AM27" s="149"/>
+      <c r="AN27" s="149"/>
+      <c r="AO27" s="149"/>
+      <c r="AP27" s="149"/>
+      <c r="AQ27" s="149"/>
+      <c r="AR27" s="149"/>
+      <c r="AS27" s="149"/>
+      <c r="AT27" s="149"/>
+      <c r="AU27" s="149"/>
+      <c r="AV27" s="149"/>
+      <c r="AW27" s="149"/>
+      <c r="AX27" s="149"/>
+      <c r="AY27" s="149"/>
+      <c r="AZ27" s="149">
+        <f t="shared" ref="AZ27" si="10">N27-J27</f>
+        <v>0</v>
+      </c>
+      <c r="BA27" s="149"/>
+      <c r="BB27" s="149"/>
+      <c r="BC27" s="149"/>
+    </row>
+    <row r="28" spans="2:55">
+      <c r="B28" s="149"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
+      <c r="N28" s="149"/>
+      <c r="O28" s="149"/>
+      <c r="P28" s="149"/>
+      <c r="Q28" s="149"/>
+      <c r="R28" s="149"/>
+      <c r="S28" s="149"/>
+      <c r="T28" s="149"/>
+      <c r="U28" s="149"/>
+      <c r="V28" s="149"/>
+      <c r="W28" s="149"/>
+      <c r="X28" s="149"/>
+      <c r="Y28" s="149"/>
+      <c r="Z28" s="149"/>
+      <c r="AA28" s="149"/>
+      <c r="AB28" s="149"/>
+      <c r="AC28" s="149"/>
+      <c r="AD28" s="149"/>
+      <c r="AE28" s="149"/>
+      <c r="AF28" s="149"/>
+      <c r="AG28" s="149"/>
+      <c r="AH28" s="149"/>
+      <c r="AI28" s="149"/>
+      <c r="AJ28" s="149"/>
+      <c r="AK28" s="149"/>
+      <c r="AL28" s="149"/>
+      <c r="AM28" s="149"/>
+      <c r="AN28" s="149"/>
+      <c r="AO28" s="149"/>
+      <c r="AP28" s="149"/>
+      <c r="AQ28" s="149"/>
+      <c r="AR28" s="149"/>
+      <c r="AS28" s="149"/>
+      <c r="AT28" s="149"/>
+      <c r="AU28" s="149"/>
+      <c r="AV28" s="149"/>
+      <c r="AW28" s="149"/>
+      <c r="AX28" s="149"/>
+      <c r="AY28" s="149"/>
+      <c r="AZ28" s="149"/>
+      <c r="BA28" s="149"/>
+      <c r="BB28" s="149"/>
+      <c r="BC28" s="149"/>
+    </row>
+    <row r="29" spans="2:55">
+      <c r="B29" s="149"/>
+      <c r="C29" s="149"/>
+      <c r="D29" s="149"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
+      <c r="N29" s="149"/>
+      <c r="O29" s="149"/>
+      <c r="P29" s="149"/>
+      <c r="Q29" s="149"/>
+      <c r="R29" s="149"/>
+      <c r="S29" s="149"/>
+      <c r="T29" s="149"/>
+      <c r="U29" s="149"/>
+      <c r="V29" s="149"/>
+      <c r="W29" s="149"/>
+      <c r="X29" s="149"/>
+      <c r="Y29" s="149"/>
+      <c r="Z29" s="149"/>
+      <c r="AA29" s="149"/>
+      <c r="AB29" s="149"/>
+      <c r="AC29" s="149"/>
+      <c r="AD29" s="149"/>
+      <c r="AE29" s="149"/>
+      <c r="AF29" s="149"/>
+      <c r="AG29" s="149"/>
+      <c r="AH29" s="149"/>
+      <c r="AI29" s="149"/>
+      <c r="AJ29" s="149"/>
+      <c r="AK29" s="149"/>
+      <c r="AL29" s="149"/>
+      <c r="AM29" s="149"/>
+      <c r="AN29" s="149"/>
+      <c r="AO29" s="149"/>
+      <c r="AP29" s="149"/>
+      <c r="AQ29" s="149"/>
+      <c r="AR29" s="149"/>
+      <c r="AS29" s="149"/>
+      <c r="AT29" s="149"/>
+      <c r="AU29" s="149"/>
+      <c r="AV29" s="149"/>
+      <c r="AW29" s="149"/>
+      <c r="AX29" s="149"/>
+      <c r="AY29" s="149"/>
+      <c r="AZ29" s="149">
+        <f t="shared" ref="AZ29" si="11">N29-J29</f>
+        <v>0</v>
+      </c>
+      <c r="BA29" s="149"/>
+      <c r="BB29" s="149"/>
+      <c r="BC29" s="149"/>
+    </row>
+    <row r="30" spans="2:55">
+      <c r="B30" s="149"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
+      <c r="N30" s="149"/>
+      <c r="O30" s="149"/>
+      <c r="P30" s="149"/>
+      <c r="Q30" s="149"/>
+      <c r="R30" s="149"/>
+      <c r="S30" s="149"/>
+      <c r="T30" s="149"/>
+      <c r="U30" s="149"/>
+      <c r="V30" s="149"/>
+      <c r="W30" s="149"/>
+      <c r="X30" s="149"/>
+      <c r="Y30" s="149"/>
+      <c r="Z30" s="149"/>
+      <c r="AA30" s="149"/>
+      <c r="AB30" s="149"/>
+      <c r="AC30" s="149"/>
+      <c r="AD30" s="149"/>
+      <c r="AE30" s="149"/>
+      <c r="AF30" s="149"/>
+      <c r="AG30" s="149"/>
+      <c r="AH30" s="149"/>
+      <c r="AI30" s="149"/>
+      <c r="AJ30" s="149"/>
+      <c r="AK30" s="149"/>
+      <c r="AL30" s="149"/>
+      <c r="AM30" s="149"/>
+      <c r="AN30" s="149"/>
+      <c r="AO30" s="149"/>
+      <c r="AP30" s="149"/>
+      <c r="AQ30" s="149"/>
+      <c r="AR30" s="149"/>
+      <c r="AS30" s="149"/>
+      <c r="AT30" s="149"/>
+      <c r="AU30" s="149"/>
+      <c r="AV30" s="149"/>
+      <c r="AW30" s="149"/>
+      <c r="AX30" s="149"/>
+      <c r="AY30" s="149"/>
+      <c r="AZ30" s="149"/>
+      <c r="BA30" s="149"/>
+      <c r="BB30" s="149"/>
+      <c r="BC30" s="149"/>
+    </row>
+    <row r="31" spans="2:55">
+      <c r="B31" s="149"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
+      <c r="N31" s="149"/>
+      <c r="O31" s="149"/>
+      <c r="P31" s="149"/>
+      <c r="Q31" s="149"/>
+      <c r="R31" s="149"/>
+      <c r="S31" s="149"/>
+      <c r="T31" s="149"/>
+      <c r="U31" s="149"/>
+      <c r="V31" s="149"/>
+      <c r="W31" s="149"/>
+      <c r="X31" s="149"/>
+      <c r="Y31" s="149"/>
+      <c r="Z31" s="149"/>
+      <c r="AA31" s="149"/>
+      <c r="AB31" s="149"/>
+      <c r="AC31" s="149"/>
+      <c r="AD31" s="149"/>
+      <c r="AE31" s="149"/>
+      <c r="AF31" s="149"/>
+      <c r="AG31" s="149"/>
+      <c r="AH31" s="149"/>
+      <c r="AI31" s="149"/>
+      <c r="AJ31" s="149"/>
+      <c r="AK31" s="149"/>
+      <c r="AL31" s="149"/>
+      <c r="AM31" s="149"/>
+      <c r="AN31" s="149"/>
+      <c r="AO31" s="149"/>
+      <c r="AP31" s="149"/>
+      <c r="AQ31" s="149"/>
+      <c r="AR31" s="149"/>
+      <c r="AS31" s="149"/>
+      <c r="AT31" s="149"/>
+      <c r="AU31" s="149"/>
+      <c r="AV31" s="149"/>
+      <c r="AW31" s="149"/>
+      <c r="AX31" s="149"/>
+      <c r="AY31" s="149"/>
+      <c r="AZ31" s="149">
+        <f t="shared" ref="AZ31" si="12">N31-J31</f>
+        <v>0</v>
+      </c>
+      <c r="BA31" s="149"/>
+      <c r="BB31" s="149"/>
+      <c r="BC31" s="149"/>
+    </row>
+    <row r="32" spans="2:55">
+      <c r="B32" s="149"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
+      <c r="N32" s="149"/>
+      <c r="O32" s="149"/>
+      <c r="P32" s="149"/>
+      <c r="Q32" s="149"/>
+      <c r="R32" s="149"/>
+      <c r="S32" s="149"/>
+      <c r="T32" s="149"/>
+      <c r="U32" s="149"/>
+      <c r="V32" s="149"/>
+      <c r="W32" s="149"/>
+      <c r="X32" s="149"/>
+      <c r="Y32" s="149"/>
+      <c r="Z32" s="149"/>
+      <c r="AA32" s="149"/>
+      <c r="AB32" s="149"/>
+      <c r="AC32" s="149"/>
+      <c r="AD32" s="149"/>
+      <c r="AE32" s="149"/>
+      <c r="AF32" s="149"/>
+      <c r="AG32" s="149"/>
+      <c r="AH32" s="149"/>
+      <c r="AI32" s="149"/>
+      <c r="AJ32" s="149"/>
+      <c r="AK32" s="149"/>
+      <c r="AL32" s="149"/>
+      <c r="AM32" s="149"/>
+      <c r="AN32" s="149"/>
+      <c r="AO32" s="149"/>
+      <c r="AP32" s="149"/>
+      <c r="AQ32" s="149"/>
+      <c r="AR32" s="149"/>
+      <c r="AS32" s="149"/>
+      <c r="AT32" s="149"/>
+      <c r="AU32" s="149"/>
+      <c r="AV32" s="149"/>
+      <c r="AW32" s="149"/>
+      <c r="AX32" s="149"/>
+      <c r="AY32" s="149"/>
+      <c r="AZ32" s="149"/>
+      <c r="BA32" s="149"/>
+      <c r="BB32" s="149"/>
+      <c r="BC32" s="149"/>
+    </row>
+  </sheetData>
+  <mergeCells count="106">
+    <mergeCell ref="A1:Z2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="R4:AH4"/>
+    <mergeCell ref="AI4:AY4"/>
+    <mergeCell ref="AZ4:BC4"/>
+    <mergeCell ref="B5:E6"/>
+    <mergeCell ref="F5:I6"/>
+    <mergeCell ref="J5:M6"/>
+    <mergeCell ref="N5:Q6"/>
+    <mergeCell ref="R5:AH6"/>
+    <mergeCell ref="AI5:AY6"/>
+    <mergeCell ref="AZ5:BC6"/>
+    <mergeCell ref="AZ7:BC8"/>
+    <mergeCell ref="B9:E10"/>
+    <mergeCell ref="F9:I10"/>
+    <mergeCell ref="J9:M10"/>
+    <mergeCell ref="N9:Q10"/>
+    <mergeCell ref="R9:AH10"/>
+    <mergeCell ref="AI9:AY10"/>
+    <mergeCell ref="AZ9:BC10"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="F7:I8"/>
+    <mergeCell ref="J7:M8"/>
+    <mergeCell ref="N7:Q8"/>
+    <mergeCell ref="R7:AH8"/>
+    <mergeCell ref="AI7:AY8"/>
+    <mergeCell ref="AZ11:BC12"/>
+    <mergeCell ref="B13:E14"/>
+    <mergeCell ref="F13:I14"/>
+    <mergeCell ref="J13:M14"/>
+    <mergeCell ref="N13:Q14"/>
+    <mergeCell ref="R13:AH14"/>
+    <mergeCell ref="AI13:AY14"/>
+    <mergeCell ref="AZ13:BC14"/>
+    <mergeCell ref="B11:E12"/>
+    <mergeCell ref="F11:I12"/>
+    <mergeCell ref="J11:M12"/>
+    <mergeCell ref="N11:Q12"/>
+    <mergeCell ref="R11:AH12"/>
+    <mergeCell ref="AI11:AY12"/>
+    <mergeCell ref="AI15:AY16"/>
+    <mergeCell ref="AZ15:BC16"/>
+    <mergeCell ref="B17:E18"/>
+    <mergeCell ref="F17:I18"/>
+    <mergeCell ref="J17:M18"/>
+    <mergeCell ref="N17:Q18"/>
+    <mergeCell ref="R17:AH18"/>
+    <mergeCell ref="AI17:AY18"/>
+    <mergeCell ref="AZ17:BC18"/>
+    <mergeCell ref="B15:E16"/>
+    <mergeCell ref="F15:I16"/>
+    <mergeCell ref="J15:M16"/>
+    <mergeCell ref="N15:Q16"/>
+    <mergeCell ref="R15:AH16"/>
+    <mergeCell ref="AI19:AY20"/>
+    <mergeCell ref="AZ19:BC20"/>
+    <mergeCell ref="B21:E22"/>
+    <mergeCell ref="F21:I22"/>
+    <mergeCell ref="J21:M22"/>
+    <mergeCell ref="N21:Q22"/>
+    <mergeCell ref="R21:AH22"/>
+    <mergeCell ref="AI21:AY22"/>
+    <mergeCell ref="AZ21:BC22"/>
+    <mergeCell ref="B19:E20"/>
+    <mergeCell ref="F19:I20"/>
+    <mergeCell ref="J19:M20"/>
+    <mergeCell ref="N19:Q20"/>
+    <mergeCell ref="R19:AH20"/>
+    <mergeCell ref="AI23:AY24"/>
+    <mergeCell ref="AZ23:BC24"/>
+    <mergeCell ref="B25:E26"/>
+    <mergeCell ref="F25:I26"/>
+    <mergeCell ref="J25:M26"/>
+    <mergeCell ref="N25:Q26"/>
+    <mergeCell ref="R25:AH26"/>
+    <mergeCell ref="AI25:AY26"/>
+    <mergeCell ref="AZ25:BC26"/>
+    <mergeCell ref="B23:E24"/>
+    <mergeCell ref="F23:I24"/>
+    <mergeCell ref="J23:M24"/>
+    <mergeCell ref="N23:Q24"/>
+    <mergeCell ref="R23:AH24"/>
+    <mergeCell ref="AI31:AY32"/>
+    <mergeCell ref="AZ31:BC32"/>
+    <mergeCell ref="B31:E32"/>
+    <mergeCell ref="F31:I32"/>
+    <mergeCell ref="J31:M32"/>
+    <mergeCell ref="N31:Q32"/>
+    <mergeCell ref="R31:AH32"/>
+    <mergeCell ref="AI27:AY28"/>
+    <mergeCell ref="AZ27:BC28"/>
+    <mergeCell ref="B29:E30"/>
+    <mergeCell ref="F29:I30"/>
+    <mergeCell ref="J29:M30"/>
+    <mergeCell ref="N29:Q30"/>
+    <mergeCell ref="R29:AH30"/>
+    <mergeCell ref="AI29:AY30"/>
+    <mergeCell ref="AZ29:BC30"/>
+    <mergeCell ref="B27:E28"/>
+    <mergeCell ref="F27:I28"/>
+    <mergeCell ref="J27:M28"/>
+    <mergeCell ref="N27:Q28"/>
+    <mergeCell ref="R27:AH28"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9903101A-8BBC-4737-ABC2-43E6FB538728}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -19335,7 +21498,7 @@
   <dimension ref="A1:BE38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R9" sqref="R9:AH10"/>
+      <selection activeCell="AZ5" sqref="AZ5:BC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18"/>
@@ -21598,22 +23761,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612F7F92-E94F-4E75-81AE-63DB399137AC}">
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D7B06C-9ED3-4C0F-B402-C1A694FEB786}">
   <sheetPr>
-    <tabColor theme="4"/>
+    <tabColor rgb="FFFFC000"/>
   </sheetPr>
   <dimension ref="A1:BC32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="BE5" sqref="BE5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BC6" sqref="BC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="39" max="39" width="2.8984375" customWidth="1"/>
+    <col min="54" max="54" width="9.3984375" customWidth="1"/>
+    <col min="55" max="55" width="9.296875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:55" s="1" customFormat="1">
       <c r="A1" s="29" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -21671,31 +23840,27 @@
     </row>
     <row r="4" spans="1:55">
       <c r="B4" s="150" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="C4" s="150"/>
       <c r="D4" s="150"/>
       <c r="E4" s="150"/>
-      <c r="F4" s="150" t="s">
-        <v>130</v>
-      </c>
+      <c r="F4" s="150"/>
       <c r="G4" s="150"/>
       <c r="H4" s="150"/>
       <c r="I4" s="150"/>
       <c r="J4" s="150" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="K4" s="150"/>
       <c r="L4" s="150"/>
       <c r="M4" s="150"/>
-      <c r="N4" s="150" t="s">
-        <v>132</v>
-      </c>
+      <c r="N4" s="150"/>
       <c r="O4" s="150"/>
       <c r="P4" s="150"/>
       <c r="Q4" s="150"/>
       <c r="R4" s="150" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="S4" s="150"/>
       <c r="T4" s="150"/>
@@ -21713,9 +23878,7 @@
       <c r="AF4" s="150"/>
       <c r="AG4" s="150"/>
       <c r="AH4" s="150"/>
-      <c r="AI4" s="150" t="s">
-        <v>134</v>
-      </c>
+      <c r="AI4" s="150"/>
       <c r="AJ4" s="150"/>
       <c r="AK4" s="150"/>
       <c r="AL4" s="150"/>
@@ -21732,40 +23895,36 @@
       <c r="AW4" s="150"/>
       <c r="AX4" s="150"/>
       <c r="AY4" s="150"/>
-      <c r="AZ4" s="150" t="s">
-        <v>135</v>
+      <c r="AZ4" s="155"/>
+      <c r="BA4" s="155"/>
+      <c r="BB4" s="160" t="s">
+        <v>162</v>
       </c>
-      <c r="BA4" s="150"/>
-      <c r="BB4" s="150"/>
-      <c r="BC4" s="150"/>
-    </row>
-    <row r="5" spans="1:55">
-      <c r="B5" s="149">
-        <v>9201</v>
+      <c r="BC4" s="160"/>
+    </row>
+    <row r="5" spans="1:55" ht="18" customHeight="1">
+      <c r="B5" s="151" t="s">
+        <v>161</v>
       </c>
       <c r="C5" s="149"/>
       <c r="D5" s="149"/>
       <c r="E5" s="149"/>
-      <c r="F5" s="152" t="s">
-        <v>145</v>
-      </c>
+      <c r="F5" s="149"/>
       <c r="G5" s="149"/>
       <c r="H5" s="149"/>
       <c r="I5" s="149"/>
       <c r="J5" s="149">
-        <v>1710</v>
+        <v>1515</v>
       </c>
       <c r="K5" s="149"/>
       <c r="L5" s="149"/>
       <c r="M5" s="149"/>
-      <c r="N5" s="149">
-        <v>3061</v>
-      </c>
+      <c r="N5" s="149"/>
       <c r="O5" s="149"/>
       <c r="P5" s="149"/>
       <c r="Q5" s="149"/>
       <c r="R5" s="149" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="S5" s="149"/>
       <c r="T5" s="149"/>
@@ -21783,9 +23942,7 @@
       <c r="AF5" s="149"/>
       <c r="AG5" s="149"/>
       <c r="AH5" s="149"/>
-      <c r="AI5" s="151" t="s">
-        <v>147</v>
-      </c>
+      <c r="AI5" s="149"/>
       <c r="AJ5" s="149"/>
       <c r="AK5" s="149"/>
       <c r="AL5" s="149"/>
@@ -21802,13 +23959,14 @@
       <c r="AW5" s="149"/>
       <c r="AX5" s="149"/>
       <c r="AY5" s="149"/>
-      <c r="AZ5" s="149">
-        <f>N5-J5</f>
-        <v>1351</v>
+      <c r="AZ5" s="155"/>
+      <c r="BA5" s="155"/>
+      <c r="BB5" s="158" t="s">
+        <v>137</v>
       </c>
-      <c r="BA5" s="149"/>
-      <c r="BB5" s="149"/>
-      <c r="BC5" s="149"/>
+      <c r="BC5" s="159" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="6" spans="1:55">
       <c r="B6" s="149"/>
@@ -21861,39 +24019,35 @@
       <c r="AW6" s="149"/>
       <c r="AX6" s="149"/>
       <c r="AY6" s="149"/>
-      <c r="AZ6" s="149"/>
-      <c r="BA6" s="149"/>
-      <c r="BB6" s="149"/>
-      <c r="BC6" s="149"/>
+      <c r="AZ6" s="155"/>
+      <c r="BA6" s="155"/>
+      <c r="BB6" s="157">
+        <f>SUMPRODUCT(勝利!$AZ$5:$AZ$9)</f>
+        <v>1787</v>
+      </c>
+      <c r="BC6" s="157">
+        <f>SUMPRODUCT(敗北!$AZ$5:$AZ$9)</f>
+        <v>-272</v>
+      </c>
     </row>
     <row r="7" spans="1:55" ht="18" customHeight="1">
-      <c r="B7" s="149">
-        <v>9684</v>
-      </c>
+      <c r="B7" s="149"/>
       <c r="C7" s="149"/>
       <c r="D7" s="149"/>
       <c r="E7" s="149"/>
-      <c r="F7" s="152" t="s">
-        <v>142</v>
-      </c>
+      <c r="F7" s="149"/>
       <c r="G7" s="149"/>
       <c r="H7" s="149"/>
       <c r="I7" s="149"/>
-      <c r="J7" s="149">
-        <v>6863</v>
-      </c>
+      <c r="J7" s="149"/>
       <c r="K7" s="149"/>
       <c r="L7" s="149"/>
       <c r="M7" s="149"/>
-      <c r="N7" s="149">
-        <v>7251</v>
-      </c>
+      <c r="N7" s="149"/>
       <c r="O7" s="149"/>
       <c r="P7" s="149"/>
       <c r="Q7" s="149"/>
-      <c r="R7" s="149" t="s">
-        <v>143</v>
-      </c>
+      <c r="R7" s="149"/>
       <c r="S7" s="149"/>
       <c r="T7" s="149"/>
       <c r="U7" s="149"/>
@@ -21910,9 +24064,7 @@
       <c r="AF7" s="149"/>
       <c r="AG7" s="149"/>
       <c r="AH7" s="149"/>
-      <c r="AI7" s="151" t="s">
-        <v>144</v>
-      </c>
+      <c r="AI7" s="149"/>
       <c r="AJ7" s="149"/>
       <c r="AK7" s="149"/>
       <c r="AL7" s="149"/>
@@ -21929,13 +24081,12 @@
       <c r="AW7" s="149"/>
       <c r="AX7" s="149"/>
       <c r="AY7" s="149"/>
-      <c r="AZ7" s="149">
-        <f t="shared" ref="AZ7" si="0">N7-J7</f>
-        <v>388</v>
+      <c r="AZ7" s="155"/>
+      <c r="BA7" s="155"/>
+      <c r="BB7" s="150" t="s">
+        <v>163</v>
       </c>
-      <c r="BA7" s="149"/>
-      <c r="BB7" s="149"/>
-      <c r="BC7" s="149"/>
+      <c r="BC7" s="150"/>
     </row>
     <row r="8" spans="1:55">
       <c r="B8" s="149"/>
@@ -21988,39 +24139,32 @@
       <c r="AW8" s="149"/>
       <c r="AX8" s="149"/>
       <c r="AY8" s="149"/>
-      <c r="AZ8" s="149"/>
-      <c r="BA8" s="149"/>
-      <c r="BB8" s="149"/>
-      <c r="BC8" s="149"/>
+      <c r="AZ8" s="155"/>
+      <c r="BA8" s="155"/>
+      <c r="BB8" s="154">
+        <f>SUM($BB$6:$BC$6)</f>
+        <v>1515</v>
+      </c>
+      <c r="BC8" s="154"/>
     </row>
     <row r="9" spans="1:55">
-      <c r="B9" s="149">
-        <v>9468</v>
-      </c>
+      <c r="B9" s="149"/>
       <c r="C9" s="149"/>
       <c r="D9" s="149"/>
       <c r="E9" s="149"/>
-      <c r="F9" s="152" t="s">
-        <v>139</v>
-      </c>
+      <c r="F9" s="149"/>
       <c r="G9" s="149"/>
       <c r="H9" s="149"/>
       <c r="I9" s="149"/>
-      <c r="J9" s="149">
-        <v>3500</v>
-      </c>
+      <c r="J9" s="149"/>
       <c r="K9" s="149"/>
       <c r="L9" s="149"/>
       <c r="M9" s="149"/>
-      <c r="N9" s="149">
-        <v>3548</v>
-      </c>
+      <c r="N9" s="149"/>
       <c r="O9" s="149"/>
       <c r="P9" s="149"/>
       <c r="Q9" s="149"/>
-      <c r="R9" s="149" t="s">
-        <v>140</v>
-      </c>
+      <c r="R9" s="149"/>
       <c r="S9" s="149"/>
       <c r="T9" s="149"/>
       <c r="U9" s="149"/>
@@ -22037,9 +24181,7 @@
       <c r="AF9" s="149"/>
       <c r="AG9" s="149"/>
       <c r="AH9" s="149"/>
-      <c r="AI9" s="151" t="s">
-        <v>141</v>
-      </c>
+      <c r="AI9" s="149"/>
       <c r="AJ9" s="149"/>
       <c r="AK9" s="149"/>
       <c r="AL9" s="149"/>
@@ -22056,13 +24198,8 @@
       <c r="AW9" s="149"/>
       <c r="AX9" s="149"/>
       <c r="AY9" s="149"/>
-      <c r="AZ9" s="149">
-        <f t="shared" ref="AZ9" si="1">N9-J9</f>
-        <v>48</v>
-      </c>
-      <c r="BA9" s="149"/>
-      <c r="BB9" s="149"/>
-      <c r="BC9" s="149"/>
+      <c r="AZ9" s="155"/>
+      <c r="BA9" s="155"/>
     </row>
     <row r="10" spans="1:55">
       <c r="B10" s="149"/>
@@ -22115,10 +24252,10 @@
       <c r="AW10" s="149"/>
       <c r="AX10" s="149"/>
       <c r="AY10" s="149"/>
-      <c r="AZ10" s="149"/>
-      <c r="BA10" s="149"/>
-      <c r="BB10" s="149"/>
-      <c r="BC10" s="149"/>
+      <c r="AZ10" s="155"/>
+      <c r="BA10" s="155"/>
+      <c r="BB10" s="155"/>
+      <c r="BC10" s="155"/>
     </row>
     <row r="11" spans="1:55">
       <c r="B11" s="149"/>
@@ -22171,13 +24308,10 @@
       <c r="AW11" s="149"/>
       <c r="AX11" s="149"/>
       <c r="AY11" s="149"/>
-      <c r="AZ11" s="149">
-        <f t="shared" ref="AZ11" si="2">N11-J11</f>
-        <v>0</v>
-      </c>
-      <c r="BA11" s="149"/>
-      <c r="BB11" s="149"/>
-      <c r="BC11" s="149"/>
+      <c r="AZ11" s="155"/>
+      <c r="BA11" s="155"/>
+      <c r="BB11" s="155"/>
+      <c r="BC11" s="155"/>
     </row>
     <row r="12" spans="1:55">
       <c r="B12" s="149"/>
@@ -22230,10 +24364,10 @@
       <c r="AW12" s="149"/>
       <c r="AX12" s="149"/>
       <c r="AY12" s="149"/>
-      <c r="AZ12" s="149"/>
-      <c r="BA12" s="149"/>
-      <c r="BB12" s="149"/>
-      <c r="BC12" s="149"/>
+      <c r="AZ12" s="155"/>
+      <c r="BA12" s="155"/>
+      <c r="BB12" s="155"/>
+      <c r="BC12" s="155"/>
     </row>
     <row r="13" spans="1:55">
       <c r="B13" s="149"/>
@@ -22286,13 +24420,10 @@
       <c r="AW13" s="149"/>
       <c r="AX13" s="149"/>
       <c r="AY13" s="149"/>
-      <c r="AZ13" s="149">
-        <f t="shared" ref="AZ13" si="3">N13-J13</f>
-        <v>0</v>
-      </c>
-      <c r="BA13" s="149"/>
-      <c r="BB13" s="149"/>
-      <c r="BC13" s="149"/>
+      <c r="AZ13" s="155"/>
+      <c r="BA13" s="155"/>
+      <c r="BB13" s="155"/>
+      <c r="BC13" s="155"/>
     </row>
     <row r="14" spans="1:55">
       <c r="B14" s="149"/>
@@ -22345,10 +24476,10 @@
       <c r="AW14" s="149"/>
       <c r="AX14" s="149"/>
       <c r="AY14" s="149"/>
-      <c r="AZ14" s="149"/>
-      <c r="BA14" s="149"/>
-      <c r="BB14" s="149"/>
-      <c r="BC14" s="149"/>
+      <c r="AZ14" s="155"/>
+      <c r="BA14" s="155"/>
+      <c r="BB14" s="155"/>
+      <c r="BC14" s="155"/>
     </row>
     <row r="15" spans="1:55">
       <c r="B15" s="149"/>
@@ -22401,13 +24532,10 @@
       <c r="AW15" s="149"/>
       <c r="AX15" s="149"/>
       <c r="AY15" s="149"/>
-      <c r="AZ15" s="149">
-        <f t="shared" ref="AZ15" si="4">N15-J15</f>
-        <v>0</v>
-      </c>
-      <c r="BA15" s="149"/>
-      <c r="BB15" s="149"/>
-      <c r="BC15" s="149"/>
+      <c r="AZ15" s="155"/>
+      <c r="BA15" s="155"/>
+      <c r="BB15" s="155"/>
+      <c r="BC15" s="155"/>
     </row>
     <row r="16" spans="1:55">
       <c r="B16" s="149"/>
@@ -22460,10 +24588,10 @@
       <c r="AW16" s="149"/>
       <c r="AX16" s="149"/>
       <c r="AY16" s="149"/>
-      <c r="AZ16" s="149"/>
-      <c r="BA16" s="149"/>
-      <c r="BB16" s="149"/>
-      <c r="BC16" s="149"/>
+      <c r="AZ16" s="155"/>
+      <c r="BA16" s="155"/>
+      <c r="BB16" s="155"/>
+      <c r="BC16" s="155"/>
     </row>
     <row r="17" spans="2:55">
       <c r="B17" s="149"/>
@@ -22516,13 +24644,10 @@
       <c r="AW17" s="149"/>
       <c r="AX17" s="149"/>
       <c r="AY17" s="149"/>
-      <c r="AZ17" s="149">
-        <f t="shared" ref="AZ17" si="5">N17-J17</f>
-        <v>0</v>
-      </c>
-      <c r="BA17" s="149"/>
-      <c r="BB17" s="149"/>
-      <c r="BC17" s="149"/>
+      <c r="AZ17" s="155"/>
+      <c r="BA17" s="155"/>
+      <c r="BB17" s="155"/>
+      <c r="BC17" s="155"/>
     </row>
     <row r="18" spans="2:55">
       <c r="B18" s="149"/>
@@ -22575,10 +24700,10 @@
       <c r="AW18" s="149"/>
       <c r="AX18" s="149"/>
       <c r="AY18" s="149"/>
-      <c r="AZ18" s="149"/>
-      <c r="BA18" s="149"/>
-      <c r="BB18" s="149"/>
-      <c r="BC18" s="149"/>
+      <c r="AZ18" s="155"/>
+      <c r="BA18" s="155"/>
+      <c r="BB18" s="155"/>
+      <c r="BC18" s="155"/>
     </row>
     <row r="19" spans="2:55">
       <c r="B19" s="149"/>
@@ -22631,13 +24756,10 @@
       <c r="AW19" s="149"/>
       <c r="AX19" s="149"/>
       <c r="AY19" s="149"/>
-      <c r="AZ19" s="149">
-        <f t="shared" ref="AZ19" si="6">N19-J19</f>
-        <v>0</v>
-      </c>
-      <c r="BA19" s="149"/>
-      <c r="BB19" s="149"/>
-      <c r="BC19" s="149"/>
+      <c r="AZ19" s="155"/>
+      <c r="BA19" s="155"/>
+      <c r="BB19" s="155"/>
+      <c r="BC19" s="155"/>
     </row>
     <row r="20" spans="2:55">
       <c r="B20" s="149"/>
@@ -22690,10 +24812,10 @@
       <c r="AW20" s="149"/>
       <c r="AX20" s="149"/>
       <c r="AY20" s="149"/>
-      <c r="AZ20" s="149"/>
-      <c r="BA20" s="149"/>
-      <c r="BB20" s="149"/>
-      <c r="BC20" s="149"/>
+      <c r="AZ20" s="155"/>
+      <c r="BA20" s="155"/>
+      <c r="BB20" s="155"/>
+      <c r="BC20" s="155"/>
     </row>
     <row r="21" spans="2:55">
       <c r="B21" s="149"/>
@@ -22746,13 +24868,10 @@
       <c r="AW21" s="149"/>
       <c r="AX21" s="149"/>
       <c r="AY21" s="149"/>
-      <c r="AZ21" s="149">
-        <f t="shared" ref="AZ21" si="7">N21-J21</f>
-        <v>0</v>
-      </c>
-      <c r="BA21" s="149"/>
-      <c r="BB21" s="149"/>
-      <c r="BC21" s="149"/>
+      <c r="AZ21" s="155"/>
+      <c r="BA21" s="155"/>
+      <c r="BB21" s="155"/>
+      <c r="BC21" s="155"/>
     </row>
     <row r="22" spans="2:55">
       <c r="B22" s="149"/>
@@ -22805,10 +24924,10 @@
       <c r="AW22" s="149"/>
       <c r="AX22" s="149"/>
       <c r="AY22" s="149"/>
-      <c r="AZ22" s="149"/>
-      <c r="BA22" s="149"/>
-      <c r="BB22" s="149"/>
-      <c r="BC22" s="149"/>
+      <c r="AZ22" s="155"/>
+      <c r="BA22" s="155"/>
+      <c r="BB22" s="155"/>
+      <c r="BC22" s="155"/>
     </row>
     <row r="23" spans="2:55">
       <c r="B23" s="149"/>
@@ -22861,13 +24980,10 @@
       <c r="AW23" s="149"/>
       <c r="AX23" s="149"/>
       <c r="AY23" s="149"/>
-      <c r="AZ23" s="149">
-        <f t="shared" ref="AZ23" si="8">N23-J23</f>
-        <v>0</v>
-      </c>
-      <c r="BA23" s="149"/>
-      <c r="BB23" s="149"/>
-      <c r="BC23" s="149"/>
+      <c r="AZ23" s="155"/>
+      <c r="BA23" s="155"/>
+      <c r="BB23" s="155"/>
+      <c r="BC23" s="155"/>
     </row>
     <row r="24" spans="2:55">
       <c r="B24" s="149"/>
@@ -22920,10 +25036,10 @@
       <c r="AW24" s="149"/>
       <c r="AX24" s="149"/>
       <c r="AY24" s="149"/>
-      <c r="AZ24" s="149"/>
-      <c r="BA24" s="149"/>
-      <c r="BB24" s="149"/>
-      <c r="BC24" s="149"/>
+      <c r="AZ24" s="155"/>
+      <c r="BA24" s="155"/>
+      <c r="BB24" s="155"/>
+      <c r="BC24" s="155"/>
     </row>
     <row r="25" spans="2:55">
       <c r="B25" s="149"/>
@@ -22976,13 +25092,10 @@
       <c r="AW25" s="149"/>
       <c r="AX25" s="149"/>
       <c r="AY25" s="149"/>
-      <c r="AZ25" s="149">
-        <f t="shared" ref="AZ25" si="9">N25-J25</f>
-        <v>0</v>
-      </c>
-      <c r="BA25" s="149"/>
-      <c r="BB25" s="149"/>
-      <c r="BC25" s="149"/>
+      <c r="AZ25" s="155"/>
+      <c r="BA25" s="155"/>
+      <c r="BB25" s="155"/>
+      <c r="BC25" s="155"/>
     </row>
     <row r="26" spans="2:55">
       <c r="B26" s="149"/>
@@ -23035,10 +25148,10 @@
       <c r="AW26" s="149"/>
       <c r="AX26" s="149"/>
       <c r="AY26" s="149"/>
-      <c r="AZ26" s="149"/>
-      <c r="BA26" s="149"/>
-      <c r="BB26" s="149"/>
-      <c r="BC26" s="149"/>
+      <c r="AZ26" s="155"/>
+      <c r="BA26" s="155"/>
+      <c r="BB26" s="155"/>
+      <c r="BC26" s="155"/>
     </row>
     <row r="27" spans="2:55">
       <c r="B27" s="149"/>
@@ -23091,13 +25204,10 @@
       <c r="AW27" s="149"/>
       <c r="AX27" s="149"/>
       <c r="AY27" s="149"/>
-      <c r="AZ27" s="149">
-        <f t="shared" ref="AZ27" si="10">N27-J27</f>
-        <v>0</v>
-      </c>
-      <c r="BA27" s="149"/>
-      <c r="BB27" s="149"/>
-      <c r="BC27" s="149"/>
+      <c r="AZ27" s="155"/>
+      <c r="BA27" s="155"/>
+      <c r="BB27" s="155"/>
+      <c r="BC27" s="155"/>
     </row>
     <row r="28" spans="2:55">
       <c r="B28" s="149"/>
@@ -23150,10 +25260,10 @@
       <c r="AW28" s="149"/>
       <c r="AX28" s="149"/>
       <c r="AY28" s="149"/>
-      <c r="AZ28" s="149"/>
-      <c r="BA28" s="149"/>
-      <c r="BB28" s="149"/>
-      <c r="BC28" s="149"/>
+      <c r="AZ28" s="155"/>
+      <c r="BA28" s="155"/>
+      <c r="BB28" s="155"/>
+      <c r="BC28" s="155"/>
     </row>
     <row r="29" spans="2:55">
       <c r="B29" s="149"/>
@@ -23206,13 +25316,10 @@
       <c r="AW29" s="149"/>
       <c r="AX29" s="149"/>
       <c r="AY29" s="149"/>
-      <c r="AZ29" s="149">
-        <f t="shared" ref="AZ29" si="11">N29-J29</f>
-        <v>0</v>
-      </c>
-      <c r="BA29" s="149"/>
-      <c r="BB29" s="149"/>
-      <c r="BC29" s="149"/>
+      <c r="AZ29" s="155"/>
+      <c r="BA29" s="155"/>
+      <c r="BB29" s="155"/>
+      <c r="BC29" s="155"/>
     </row>
     <row r="30" spans="2:55">
       <c r="B30" s="149"/>
@@ -23265,317 +25372,174 @@
       <c r="AW30" s="149"/>
       <c r="AX30" s="149"/>
       <c r="AY30" s="149"/>
-      <c r="AZ30" s="149"/>
-      <c r="BA30" s="149"/>
-      <c r="BB30" s="149"/>
-      <c r="BC30" s="149"/>
+      <c r="AZ30" s="155"/>
+      <c r="BA30" s="155"/>
+      <c r="BB30" s="155"/>
+      <c r="BC30" s="155"/>
     </row>
     <row r="31" spans="2:55">
-      <c r="B31" s="149"/>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-      <c r="N31" s="149"/>
-      <c r="O31" s="149"/>
-      <c r="P31" s="149"/>
-      <c r="Q31" s="149"/>
-      <c r="R31" s="149"/>
-      <c r="S31" s="149"/>
-      <c r="T31" s="149"/>
-      <c r="U31" s="149"/>
-      <c r="V31" s="149"/>
-      <c r="W31" s="149"/>
-      <c r="X31" s="149"/>
-      <c r="Y31" s="149"/>
-      <c r="Z31" s="149"/>
-      <c r="AA31" s="149"/>
-      <c r="AB31" s="149"/>
-      <c r="AC31" s="149"/>
-      <c r="AD31" s="149"/>
-      <c r="AE31" s="149"/>
-      <c r="AF31" s="149"/>
-      <c r="AG31" s="149"/>
-      <c r="AH31" s="149"/>
-      <c r="AI31" s="149"/>
-      <c r="AJ31" s="149"/>
-      <c r="AK31" s="149"/>
-      <c r="AL31" s="149"/>
-      <c r="AM31" s="149"/>
-      <c r="AN31" s="149"/>
-      <c r="AO31" s="149"/>
-      <c r="AP31" s="149"/>
-      <c r="AQ31" s="149"/>
-      <c r="AR31" s="149"/>
-      <c r="AS31" s="149"/>
-      <c r="AT31" s="149"/>
-      <c r="AU31" s="149"/>
-      <c r="AV31" s="149"/>
-      <c r="AW31" s="149"/>
-      <c r="AX31" s="149"/>
-      <c r="AY31" s="149"/>
-      <c r="AZ31" s="149">
-        <f t="shared" ref="AZ31" si="12">N31-J31</f>
-        <v>0</v>
-      </c>
-      <c r="BA31" s="149"/>
-      <c r="BB31" s="149"/>
-      <c r="BC31" s="149"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="156"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="156"/>
+      <c r="K31" s="156"/>
+      <c r="L31" s="156"/>
+      <c r="M31" s="156"/>
+      <c r="N31" s="156"/>
+      <c r="O31" s="156"/>
+      <c r="P31" s="156"/>
+      <c r="Q31" s="156"/>
+      <c r="R31" s="156"/>
+      <c r="S31" s="156"/>
+      <c r="T31" s="156"/>
+      <c r="U31" s="156"/>
+      <c r="V31" s="156"/>
+      <c r="W31" s="156"/>
+      <c r="X31" s="156"/>
+      <c r="Y31" s="156"/>
+      <c r="Z31" s="156"/>
+      <c r="AA31" s="156"/>
+      <c r="AB31" s="156"/>
+      <c r="AC31" s="156"/>
+      <c r="AD31" s="156"/>
+      <c r="AE31" s="156"/>
+      <c r="AF31" s="156"/>
+      <c r="AG31" s="156"/>
+      <c r="AH31" s="156"/>
+      <c r="AI31" s="156"/>
+      <c r="AJ31" s="156"/>
+      <c r="AK31" s="156"/>
+      <c r="AL31" s="156"/>
+      <c r="AM31" s="156"/>
+      <c r="AN31" s="156"/>
+      <c r="AO31" s="156"/>
+      <c r="AP31" s="156"/>
+      <c r="AQ31" s="156"/>
+      <c r="AR31" s="156"/>
+      <c r="AS31" s="156"/>
+      <c r="AT31" s="156"/>
+      <c r="AU31" s="156"/>
+      <c r="AV31" s="156"/>
+      <c r="AW31" s="156"/>
+      <c r="AX31" s="156"/>
+      <c r="AY31" s="156"/>
+      <c r="AZ31" s="155"/>
+      <c r="BA31" s="155"/>
+      <c r="BB31" s="155"/>
+      <c r="BC31" s="155"/>
     </row>
     <row r="32" spans="2:55">
-      <c r="B32" s="149"/>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-      <c r="N32" s="149"/>
-      <c r="O32" s="149"/>
-      <c r="P32" s="149"/>
-      <c r="Q32" s="149"/>
-      <c r="R32" s="149"/>
-      <c r="S32" s="149"/>
-      <c r="T32" s="149"/>
-      <c r="U32" s="149"/>
-      <c r="V32" s="149"/>
-      <c r="W32" s="149"/>
-      <c r="X32" s="149"/>
-      <c r="Y32" s="149"/>
-      <c r="Z32" s="149"/>
-      <c r="AA32" s="149"/>
-      <c r="AB32" s="149"/>
-      <c r="AC32" s="149"/>
-      <c r="AD32" s="149"/>
-      <c r="AE32" s="149"/>
-      <c r="AF32" s="149"/>
-      <c r="AG32" s="149"/>
-      <c r="AH32" s="149"/>
-      <c r="AI32" s="149"/>
-      <c r="AJ32" s="149"/>
-      <c r="AK32" s="149"/>
-      <c r="AL32" s="149"/>
-      <c r="AM32" s="149"/>
-      <c r="AN32" s="149"/>
-      <c r="AO32" s="149"/>
-      <c r="AP32" s="149"/>
-      <c r="AQ32" s="149"/>
-      <c r="AR32" s="149"/>
-      <c r="AS32" s="149"/>
-      <c r="AT32" s="149"/>
-      <c r="AU32" s="149"/>
-      <c r="AV32" s="149"/>
-      <c r="AW32" s="149"/>
-      <c r="AX32" s="149"/>
-      <c r="AY32" s="149"/>
-      <c r="AZ32" s="149"/>
-      <c r="BA32" s="149"/>
-      <c r="BB32" s="149"/>
-      <c r="BC32" s="149"/>
+      <c r="B32" s="156"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="156"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="156"/>
+      <c r="K32" s="156"/>
+      <c r="L32" s="156"/>
+      <c r="M32" s="156"/>
+      <c r="N32" s="156"/>
+      <c r="O32" s="156"/>
+      <c r="P32" s="156"/>
+      <c r="Q32" s="156"/>
+      <c r="R32" s="156"/>
+      <c r="S32" s="156"/>
+      <c r="T32" s="156"/>
+      <c r="U32" s="156"/>
+      <c r="V32" s="156"/>
+      <c r="W32" s="156"/>
+      <c r="X32" s="156"/>
+      <c r="Y32" s="156"/>
+      <c r="Z32" s="156"/>
+      <c r="AA32" s="156"/>
+      <c r="AB32" s="156"/>
+      <c r="AC32" s="156"/>
+      <c r="AD32" s="156"/>
+      <c r="AE32" s="156"/>
+      <c r="AF32" s="156"/>
+      <c r="AG32" s="156"/>
+      <c r="AH32" s="156"/>
+      <c r="AI32" s="156"/>
+      <c r="AJ32" s="156"/>
+      <c r="AK32" s="156"/>
+      <c r="AL32" s="156"/>
+      <c r="AM32" s="156"/>
+      <c r="AN32" s="156"/>
+      <c r="AO32" s="156"/>
+      <c r="AP32" s="156"/>
+      <c r="AQ32" s="156"/>
+      <c r="AR32" s="156"/>
+      <c r="AS32" s="156"/>
+      <c r="AT32" s="156"/>
+      <c r="AU32" s="156"/>
+      <c r="AV32" s="156"/>
+      <c r="AW32" s="156"/>
+      <c r="AX32" s="156"/>
+      <c r="AY32" s="156"/>
+      <c r="AZ32" s="155"/>
+      <c r="BA32" s="155"/>
+      <c r="BB32" s="155"/>
+      <c r="BC32" s="155"/>
     </row>
   </sheetData>
-  <mergeCells count="106">
-    <mergeCell ref="A1:Z2"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="N4:Q4"/>
-    <mergeCell ref="R4:AH4"/>
-    <mergeCell ref="AI4:AY4"/>
-    <mergeCell ref="AZ4:BC4"/>
-    <mergeCell ref="B5:E6"/>
-    <mergeCell ref="F5:I6"/>
-    <mergeCell ref="J5:M6"/>
-    <mergeCell ref="N5:Q6"/>
-    <mergeCell ref="R5:AH6"/>
-    <mergeCell ref="AI5:AY6"/>
-    <mergeCell ref="AZ5:BC6"/>
-    <mergeCell ref="AZ7:BC8"/>
-    <mergeCell ref="B9:E10"/>
-    <mergeCell ref="F9:I10"/>
-    <mergeCell ref="J9:M10"/>
-    <mergeCell ref="N9:Q10"/>
-    <mergeCell ref="R9:AH10"/>
-    <mergeCell ref="AI9:AY10"/>
-    <mergeCell ref="AZ9:BC10"/>
-    <mergeCell ref="B7:E8"/>
-    <mergeCell ref="F7:I8"/>
-    <mergeCell ref="J7:M8"/>
-    <mergeCell ref="N7:Q8"/>
-    <mergeCell ref="R7:AH8"/>
-    <mergeCell ref="AI7:AY8"/>
-    <mergeCell ref="AZ11:BC12"/>
-    <mergeCell ref="B13:E14"/>
-    <mergeCell ref="F13:I14"/>
-    <mergeCell ref="J13:M14"/>
-    <mergeCell ref="N13:Q14"/>
-    <mergeCell ref="R13:AH14"/>
-    <mergeCell ref="AI13:AY14"/>
-    <mergeCell ref="AZ13:BC14"/>
-    <mergeCell ref="B11:E12"/>
-    <mergeCell ref="F11:I12"/>
-    <mergeCell ref="J11:M12"/>
-    <mergeCell ref="N11:Q12"/>
-    <mergeCell ref="R11:AH12"/>
-    <mergeCell ref="AI11:AY12"/>
-    <mergeCell ref="AI15:AY16"/>
-    <mergeCell ref="AZ15:BC16"/>
-    <mergeCell ref="B17:E18"/>
-    <mergeCell ref="F17:I18"/>
-    <mergeCell ref="J17:M18"/>
-    <mergeCell ref="N17:Q18"/>
-    <mergeCell ref="R17:AH18"/>
-    <mergeCell ref="AI17:AY18"/>
-    <mergeCell ref="AZ17:BC18"/>
-    <mergeCell ref="B15:E16"/>
-    <mergeCell ref="F15:I16"/>
-    <mergeCell ref="J15:M16"/>
-    <mergeCell ref="N15:Q16"/>
-    <mergeCell ref="R15:AH16"/>
-    <mergeCell ref="AI19:AY20"/>
-    <mergeCell ref="AZ19:BC20"/>
-    <mergeCell ref="B21:E22"/>
-    <mergeCell ref="F21:I22"/>
-    <mergeCell ref="J21:M22"/>
-    <mergeCell ref="N21:Q22"/>
-    <mergeCell ref="R21:AH22"/>
-    <mergeCell ref="AI21:AY22"/>
-    <mergeCell ref="AZ21:BC22"/>
-    <mergeCell ref="B19:E20"/>
-    <mergeCell ref="F19:I20"/>
-    <mergeCell ref="J19:M20"/>
-    <mergeCell ref="N19:Q20"/>
-    <mergeCell ref="R19:AH20"/>
-    <mergeCell ref="AI23:AY24"/>
-    <mergeCell ref="AZ23:BC24"/>
-    <mergeCell ref="B25:E26"/>
-    <mergeCell ref="F25:I26"/>
-    <mergeCell ref="J25:M26"/>
-    <mergeCell ref="N25:Q26"/>
-    <mergeCell ref="R25:AH26"/>
-    <mergeCell ref="AI25:AY26"/>
-    <mergeCell ref="AZ25:BC26"/>
-    <mergeCell ref="B23:E24"/>
-    <mergeCell ref="F23:I24"/>
-    <mergeCell ref="J23:M24"/>
-    <mergeCell ref="N23:Q24"/>
-    <mergeCell ref="R23:AH24"/>
-    <mergeCell ref="AI31:AY32"/>
-    <mergeCell ref="AZ31:BC32"/>
-    <mergeCell ref="B31:E32"/>
-    <mergeCell ref="F31:I32"/>
-    <mergeCell ref="J31:M32"/>
-    <mergeCell ref="N31:Q32"/>
-    <mergeCell ref="R31:AH32"/>
-    <mergeCell ref="AI27:AY28"/>
-    <mergeCell ref="AZ27:BC28"/>
-    <mergeCell ref="B29:E30"/>
-    <mergeCell ref="F29:I30"/>
-    <mergeCell ref="J29:M30"/>
-    <mergeCell ref="N29:Q30"/>
-    <mergeCell ref="R29:AH30"/>
-    <mergeCell ref="AI29:AY30"/>
-    <mergeCell ref="AZ29:BC30"/>
-    <mergeCell ref="B27:E28"/>
-    <mergeCell ref="F27:I28"/>
-    <mergeCell ref="J27:M28"/>
-    <mergeCell ref="N27:Q28"/>
-    <mergeCell ref="R27:AH28"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4A0B6E6-B6BA-4227-9FE9-613C2813A3E8}">
-  <dimension ref="A1:Z2"/>
-  <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3" defaultRowHeight="18"/>
-  <sheetData>
-    <row r="1" spans="1:26" s="1" customFormat="1">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-    </row>
-    <row r="2" spans="1:26" s="1" customFormat="1">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-      <c r="X2" s="29"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="29"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="46">
+    <mergeCell ref="B29:I30"/>
+    <mergeCell ref="J29:Q30"/>
+    <mergeCell ref="R29:AY30"/>
+    <mergeCell ref="BB4:BC4"/>
+    <mergeCell ref="BB7:BC7"/>
+    <mergeCell ref="BB8:BC8"/>
+    <mergeCell ref="R21:AY22"/>
+    <mergeCell ref="B23:I24"/>
+    <mergeCell ref="J23:Q24"/>
+    <mergeCell ref="R23:AY24"/>
+    <mergeCell ref="B25:I26"/>
+    <mergeCell ref="J25:Q26"/>
+    <mergeCell ref="R25:AY26"/>
+    <mergeCell ref="B17:I18"/>
+    <mergeCell ref="J17:Q18"/>
+    <mergeCell ref="R17:AY18"/>
+    <mergeCell ref="B19:I20"/>
+    <mergeCell ref="J19:Q20"/>
+    <mergeCell ref="R19:AY20"/>
+    <mergeCell ref="J9:Q10"/>
+    <mergeCell ref="R9:AY10"/>
+    <mergeCell ref="B11:I12"/>
+    <mergeCell ref="J11:Q12"/>
+    <mergeCell ref="R11:AY12"/>
+    <mergeCell ref="B13:I14"/>
+    <mergeCell ref="J13:Q14"/>
+    <mergeCell ref="R13:AY14"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="J4:Q4"/>
+    <mergeCell ref="R4:AY4"/>
+    <mergeCell ref="R5:AY6"/>
+    <mergeCell ref="J5:Q6"/>
+    <mergeCell ref="B5:I6"/>
+    <mergeCell ref="B7:I8"/>
+    <mergeCell ref="J7:Q8"/>
+    <mergeCell ref="B27:I28"/>
+    <mergeCell ref="J27:Q28"/>
+    <mergeCell ref="R27:AY28"/>
+    <mergeCell ref="B21:I22"/>
+    <mergeCell ref="J21:Q22"/>
+    <mergeCell ref="B15:I16"/>
+    <mergeCell ref="J15:Q16"/>
+    <mergeCell ref="R15:AY16"/>
+    <mergeCell ref="R7:AY8"/>
+    <mergeCell ref="B9:I10"/>
     <mergeCell ref="A1:Z2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/SBI.xlsx
+++ b/SBI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyose\Desktop\SBI_Git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B044A5-7D0A-4D63-AEA1-397ABFEABE35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E722FE8-9AD3-46C7-869A-C6CD7C2D25DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SBI用語" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="187">
   <si>
     <t>SBI</t>
     <phoneticPr fontId="1"/>
@@ -2284,12 +2284,275 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>2023
+9/7 → 9/19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023
+9/11 → 9/19</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10日軸で上昇する見込みがあった</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ミコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10日で上昇しなかったため、リスクが少ないうちに退散</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>タイサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴールデンクロスに入りかかっていた</t>
+    <rPh sb="9" eb="10">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイナスになっており、上昇する見込みが少ないと感じたため
+売却したが約定の結果を見ると多少のプラスになってたのでラッキー</t>
+    <rPh sb="11" eb="13">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ミコ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バイキャク</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ヤクテイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>タショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←えらい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴールデンクロスが終了し、下降傾向に入ったため</t>
+    <rPh sb="9" eb="11">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="17">
+      <t>カコウケイコウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴールデンクロスに入り、上昇傾向にあった</t>
+    <rPh sb="9" eb="10">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>ジョウショウケイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023
+6/22→9/25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023
+7/10→9/25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>過去数か月間、上昇傾向が続き長く持っていても落ちることは
+ないと感じたから</t>
+    <rPh sb="0" eb="2">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ゲツカン</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>ジョウショウケイコウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023
+8/1→9/25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長期間での下降傾向があったものの、短期間では
+ゴールデンクロスに入ろうとしていたため</t>
+    <rPh sb="0" eb="3">
+      <t>チョウキカン</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>カコウケイコウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>タンキカン</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上昇する見込みが無いため</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウショウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ミコ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←短期運営の予定で購入したのに長期間持っていたため</t>
+    <rPh sb="1" eb="5">
+      <t>タンキウンエイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>チョウキカン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分かりやすく負けた　バカ</t>
+    <rPh sb="0" eb="1">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023
+8/28 → 9/25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>短期運営に挑戦して成功したものや事前に決めたルールを守らず保持し続けた結果、負けたものなど学びが多かった
+とりあえず微増</t>
+    <rPh sb="0" eb="4">
+      <t>タンキウンエイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョウセン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジゼン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>マモ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ホジ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>マナ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ビゾウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2428,6 +2691,14 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2587,7 +2858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3026,6 +3297,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3037,6 +3317,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5877,6 +6163,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>205740</xdr:colOff>
+      <xdr:row>260</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>61403</xdr:colOff>
+      <xdr:row>287</xdr:row>
+      <xdr:rowOff>99597</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6FB311A-C452-5FF7-A1C6-2CF97E43F0DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="205740" y="59512200"/>
+          <a:ext cx="5113463" cy="6195597"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>293</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>46179</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>221523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{830A3871-4EFA-96CD-ADC3-7FE368541F5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="236220" y="67101720"/>
+          <a:ext cx="5296359" cy="6271803"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7987,10 +8361,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CD9074B-585E-422E-A7B9-614538343EB0}">
-  <dimension ref="A1:Z228"/>
+  <dimension ref="A1:Z292"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA197" sqref="AA197"/>
+    <sheetView topLeftCell="A291" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AG305" sqref="AG305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18"/>
@@ -8059,17 +8433,17 @@
       </c>
     </row>
     <row r="5" spans="1:26">
-      <c r="B5" s="160">
+      <c r="B5" s="163">
         <v>45112</v>
       </c>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
-      <c r="J5" s="161"/>
+      <c r="C5" s="164"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
     </row>
     <row r="35" spans="2:10">
       <c r="B35" t="s">
@@ -8077,17 +8451,17 @@
       </c>
     </row>
     <row r="36" spans="2:10">
-      <c r="B36" s="160">
+      <c r="B36" s="163">
         <v>45113</v>
       </c>
-      <c r="C36" s="161"/>
-      <c r="D36" s="161"/>
-      <c r="E36" s="161"/>
-      <c r="F36" s="161"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="161"/>
-      <c r="J36" s="161"/>
+      <c r="C36" s="164"/>
+      <c r="D36" s="164"/>
+      <c r="E36" s="164"/>
+      <c r="F36" s="164"/>
+      <c r="G36" s="164"/>
+      <c r="H36" s="164"/>
+      <c r="I36" s="164"/>
+      <c r="J36" s="164"/>
     </row>
     <row r="67" spans="2:10">
       <c r="B67" t="s">
@@ -8095,17 +8469,17 @@
       </c>
     </row>
     <row r="68" spans="2:10">
-      <c r="B68" s="160">
+      <c r="B68" s="163">
         <v>45117</v>
       </c>
-      <c r="C68" s="161"/>
-      <c r="D68" s="161"/>
-      <c r="E68" s="161"/>
-      <c r="F68" s="161"/>
-      <c r="G68" s="161"/>
-      <c r="H68" s="161"/>
-      <c r="I68" s="161"/>
-      <c r="J68" s="161"/>
+      <c r="C68" s="164"/>
+      <c r="D68" s="164"/>
+      <c r="E68" s="164"/>
+      <c r="F68" s="164"/>
+      <c r="G68" s="164"/>
+      <c r="H68" s="164"/>
+      <c r="I68" s="164"/>
+      <c r="J68" s="164"/>
     </row>
     <row r="101" spans="2:10">
       <c r="B101" t="s">
@@ -8113,17 +8487,17 @@
       </c>
     </row>
     <row r="102" spans="2:10">
-      <c r="B102" s="160">
+      <c r="B102" s="163">
         <v>45126</v>
       </c>
-      <c r="C102" s="161"/>
-      <c r="D102" s="161"/>
-      <c r="E102" s="161"/>
-      <c r="F102" s="161"/>
-      <c r="G102" s="161"/>
-      <c r="H102" s="161"/>
-      <c r="I102" s="161"/>
-      <c r="J102" s="161"/>
+      <c r="C102" s="164"/>
+      <c r="D102" s="164"/>
+      <c r="E102" s="164"/>
+      <c r="F102" s="164"/>
+      <c r="G102" s="164"/>
+      <c r="H102" s="164"/>
+      <c r="I102" s="164"/>
+      <c r="J102" s="164"/>
     </row>
     <row r="132" spans="2:10">
       <c r="B132" t="s">
@@ -8131,17 +8505,17 @@
       </c>
     </row>
     <row r="133" spans="2:10">
-      <c r="B133" s="160">
+      <c r="B133" s="163">
         <v>45138</v>
       </c>
-      <c r="C133" s="161"/>
-      <c r="D133" s="161"/>
-      <c r="E133" s="161"/>
-      <c r="F133" s="161"/>
-      <c r="G133" s="161"/>
-      <c r="H133" s="161"/>
-      <c r="I133" s="161"/>
-      <c r="J133" s="161"/>
+      <c r="C133" s="164"/>
+      <c r="D133" s="164"/>
+      <c r="E133" s="164"/>
+      <c r="F133" s="164"/>
+      <c r="G133" s="164"/>
+      <c r="H133" s="164"/>
+      <c r="I133" s="164"/>
+      <c r="J133" s="164"/>
     </row>
     <row r="164" spans="2:10">
       <c r="B164" t="s">
@@ -8149,17 +8523,17 @@
       </c>
     </row>
     <row r="165" spans="2:10">
-      <c r="B165" s="160">
+      <c r="B165" s="163">
         <v>45139</v>
       </c>
-      <c r="C165" s="161"/>
-      <c r="D165" s="161"/>
-      <c r="E165" s="161"/>
-      <c r="F165" s="161"/>
-      <c r="G165" s="161"/>
-      <c r="H165" s="161"/>
-      <c r="I165" s="161"/>
-      <c r="J165" s="161"/>
+      <c r="C165" s="164"/>
+      <c r="D165" s="164"/>
+      <c r="E165" s="164"/>
+      <c r="F165" s="164"/>
+      <c r="G165" s="164"/>
+      <c r="H165" s="164"/>
+      <c r="I165" s="164"/>
+      <c r="J165" s="164"/>
     </row>
     <row r="196" spans="2:10">
       <c r="B196" t="s">
@@ -8167,17 +8541,17 @@
       </c>
     </row>
     <row r="197" spans="2:10">
-      <c r="B197" s="160">
+      <c r="B197" s="163">
         <v>45150</v>
       </c>
-      <c r="C197" s="161"/>
-      <c r="D197" s="161"/>
-      <c r="E197" s="161"/>
-      <c r="F197" s="161"/>
-      <c r="G197" s="161"/>
-      <c r="H197" s="161"/>
-      <c r="I197" s="161"/>
-      <c r="J197" s="161"/>
+      <c r="C197" s="164"/>
+      <c r="D197" s="164"/>
+      <c r="E197" s="164"/>
+      <c r="F197" s="164"/>
+      <c r="G197" s="164"/>
+      <c r="H197" s="164"/>
+      <c r="I197" s="164"/>
+      <c r="J197" s="164"/>
     </row>
     <row r="227" spans="2:10">
       <c r="B227" t="s">
@@ -8185,29 +8559,67 @@
       </c>
     </row>
     <row r="228" spans="2:10">
-      <c r="B228" s="160">
+      <c r="B228" s="163">
         <v>45175</v>
       </c>
-      <c r="C228" s="161"/>
-      <c r="D228" s="161"/>
-      <c r="E228" s="161"/>
-      <c r="F228" s="161"/>
-      <c r="G228" s="161"/>
-      <c r="H228" s="161"/>
-      <c r="I228" s="161"/>
-      <c r="J228" s="161"/>
+      <c r="C228" s="164"/>
+      <c r="D228" s="164"/>
+      <c r="E228" s="164"/>
+      <c r="F228" s="164"/>
+      <c r="G228" s="164"/>
+      <c r="H228" s="164"/>
+      <c r="I228" s="164"/>
+      <c r="J228" s="164"/>
+    </row>
+    <row r="259" spans="2:10">
+      <c r="B259" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="260" spans="2:10">
+      <c r="B260" s="163">
+        <v>45177</v>
+      </c>
+      <c r="C260" s="164"/>
+      <c r="D260" s="164"/>
+      <c r="E260" s="164"/>
+      <c r="F260" s="164"/>
+      <c r="G260" s="164"/>
+      <c r="H260" s="164"/>
+      <c r="I260" s="164"/>
+      <c r="J260" s="164"/>
+    </row>
+    <row r="291" spans="2:10">
+      <c r="B291" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="292" spans="2:10">
+      <c r="B292" s="163">
+        <v>45180</v>
+      </c>
+      <c r="C292" s="164"/>
+      <c r="D292" s="164"/>
+      <c r="E292" s="164"/>
+      <c r="F292" s="164"/>
+      <c r="G292" s="164"/>
+      <c r="H292" s="164"/>
+      <c r="I292" s="164"/>
+      <c r="J292" s="164"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="B228:J228"/>
-    <mergeCell ref="B197:J197"/>
-    <mergeCell ref="B165:J165"/>
-    <mergeCell ref="B133:J133"/>
+  <mergeCells count="11">
+    <mergeCell ref="B292:J292"/>
     <mergeCell ref="A1:Z2"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="B36:J36"/>
     <mergeCell ref="B68:J68"/>
     <mergeCell ref="B102:J102"/>
+    <mergeCell ref="B260:J260"/>
+    <mergeCell ref="B228:J228"/>
+    <mergeCell ref="B197:J197"/>
+    <mergeCell ref="B165:J165"/>
+    <mergeCell ref="B133:J133"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19833,7 +20245,7 @@
   <dimension ref="A1:BC32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AZ5" sqref="AZ5:BC6"/>
+      <selection activeCell="N19" sqref="N19:Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18"/>
@@ -20348,23 +20760,33 @@
       <c r="BC10" s="155"/>
     </row>
     <row r="11" spans="1:55">
-      <c r="B11" s="155"/>
+      <c r="B11" s="155">
+        <v>7388</v>
+      </c>
       <c r="C11" s="155"/>
       <c r="D11" s="155"/>
       <c r="E11" s="155"/>
-      <c r="F11" s="155"/>
+      <c r="F11" s="157" t="s">
+        <v>169</v>
+      </c>
       <c r="G11" s="155"/>
       <c r="H11" s="155"/>
       <c r="I11" s="155"/>
-      <c r="J11" s="155"/>
+      <c r="J11" s="155">
+        <v>3345</v>
+      </c>
       <c r="K11" s="155"/>
       <c r="L11" s="155"/>
       <c r="M11" s="155"/>
-      <c r="N11" s="155"/>
+      <c r="N11" s="155">
+        <v>3375</v>
+      </c>
       <c r="O11" s="155"/>
       <c r="P11" s="155"/>
       <c r="Q11" s="155"/>
-      <c r="R11" s="155"/>
+      <c r="R11" s="155" t="s">
+        <v>172</v>
+      </c>
       <c r="S11" s="155"/>
       <c r="T11" s="155"/>
       <c r="U11" s="155"/>
@@ -20381,26 +20803,28 @@
       <c r="AF11" s="155"/>
       <c r="AG11" s="155"/>
       <c r="AH11" s="155"/>
-      <c r="AI11" s="155"/>
-      <c r="AJ11" s="155"/>
-      <c r="AK11" s="155"/>
-      <c r="AL11" s="155"/>
-      <c r="AM11" s="155"/>
-      <c r="AN11" s="155"/>
-      <c r="AO11" s="155"/>
-      <c r="AP11" s="155"/>
-      <c r="AQ11" s="155"/>
-      <c r="AR11" s="155"/>
-      <c r="AS11" s="155"/>
-      <c r="AT11" s="155"/>
-      <c r="AU11" s="155"/>
-      <c r="AV11" s="155"/>
-      <c r="AW11" s="155"/>
-      <c r="AX11" s="155"/>
-      <c r="AY11" s="155"/>
+      <c r="AI11" s="158" t="s">
+        <v>173</v>
+      </c>
+      <c r="AJ11" s="159"/>
+      <c r="AK11" s="159"/>
+      <c r="AL11" s="159"/>
+      <c r="AM11" s="159"/>
+      <c r="AN11" s="159"/>
+      <c r="AO11" s="159"/>
+      <c r="AP11" s="159"/>
+      <c r="AQ11" s="159"/>
+      <c r="AR11" s="159"/>
+      <c r="AS11" s="159"/>
+      <c r="AT11" s="159"/>
+      <c r="AU11" s="159"/>
+      <c r="AV11" s="159"/>
+      <c r="AW11" s="159"/>
+      <c r="AX11" s="159"/>
+      <c r="AY11" s="159"/>
       <c r="AZ11" s="155">
         <f t="shared" ref="AZ11" si="2">N11-J11</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="BA11" s="155"/>
       <c r="BB11" s="155"/>
@@ -20440,46 +20864,56 @@
       <c r="AF12" s="155"/>
       <c r="AG12" s="155"/>
       <c r="AH12" s="155"/>
-      <c r="AI12" s="155"/>
-      <c r="AJ12" s="155"/>
-      <c r="AK12" s="155"/>
-      <c r="AL12" s="155"/>
-      <c r="AM12" s="155"/>
-      <c r="AN12" s="155"/>
-      <c r="AO12" s="155"/>
-      <c r="AP12" s="155"/>
-      <c r="AQ12" s="155"/>
-      <c r="AR12" s="155"/>
-      <c r="AS12" s="155"/>
-      <c r="AT12" s="155"/>
-      <c r="AU12" s="155"/>
-      <c r="AV12" s="155"/>
-      <c r="AW12" s="155"/>
-      <c r="AX12" s="155"/>
-      <c r="AY12" s="155"/>
+      <c r="AI12" s="159"/>
+      <c r="AJ12" s="159"/>
+      <c r="AK12" s="159"/>
+      <c r="AL12" s="159"/>
+      <c r="AM12" s="159"/>
+      <c r="AN12" s="159"/>
+      <c r="AO12" s="159"/>
+      <c r="AP12" s="159"/>
+      <c r="AQ12" s="159"/>
+      <c r="AR12" s="159"/>
+      <c r="AS12" s="159"/>
+      <c r="AT12" s="159"/>
+      <c r="AU12" s="159"/>
+      <c r="AV12" s="159"/>
+      <c r="AW12" s="159"/>
+      <c r="AX12" s="159"/>
+      <c r="AY12" s="159"/>
       <c r="AZ12" s="155"/>
       <c r="BA12" s="155"/>
       <c r="BB12" s="155"/>
       <c r="BC12" s="155"/>
     </row>
     <row r="13" spans="1:55">
-      <c r="B13" s="155"/>
+      <c r="B13" s="155">
+        <v>9433</v>
+      </c>
       <c r="C13" s="155"/>
       <c r="D13" s="155"/>
       <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
+      <c r="F13" s="157" t="s">
+        <v>177</v>
+      </c>
       <c r="G13" s="155"/>
       <c r="H13" s="155"/>
       <c r="I13" s="155"/>
-      <c r="J13" s="155"/>
+      <c r="J13" s="155">
+        <v>4479</v>
+      </c>
       <c r="K13" s="155"/>
       <c r="L13" s="155"/>
       <c r="M13" s="155"/>
-      <c r="N13" s="155"/>
+      <c r="N13" s="155">
+        <v>4697</v>
+      </c>
       <c r="O13" s="155"/>
       <c r="P13" s="155"/>
       <c r="Q13" s="155"/>
-      <c r="R13" s="155"/>
+      <c r="R13" s="155" t="s">
+        <v>176</v>
+      </c>
       <c r="S13" s="155"/>
       <c r="T13" s="155"/>
       <c r="U13" s="155"/>
@@ -20496,7 +20930,9 @@
       <c r="AF13" s="155"/>
       <c r="AG13" s="155"/>
       <c r="AH13" s="155"/>
-      <c r="AI13" s="155"/>
+      <c r="AI13" s="155" t="s">
+        <v>175</v>
+      </c>
       <c r="AJ13" s="155"/>
       <c r="AK13" s="155"/>
       <c r="AL13" s="155"/>
@@ -20514,8 +20950,8 @@
       <c r="AX13" s="155"/>
       <c r="AY13" s="155"/>
       <c r="AZ13" s="155">
-        <f t="shared" ref="AZ13" si="3">N13-J13</f>
-        <v>0</v>
+        <f>N13-J13</f>
+        <v>218</v>
       </c>
       <c r="BA13" s="155"/>
       <c r="BB13" s="155"/>
@@ -20578,40 +21014,52 @@
       <c r="BC14" s="155"/>
     </row>
     <row r="15" spans="1:55">
-      <c r="B15" s="155"/>
+      <c r="B15" s="155">
+        <v>2702</v>
+      </c>
       <c r="C15" s="155"/>
       <c r="D15" s="155"/>
       <c r="E15" s="155"/>
-      <c r="F15" s="155"/>
+      <c r="F15" s="157" t="s">
+        <v>178</v>
+      </c>
       <c r="G15" s="155"/>
       <c r="H15" s="155"/>
       <c r="I15" s="155"/>
-      <c r="J15" s="155"/>
+      <c r="J15" s="155">
+        <v>5537</v>
+      </c>
       <c r="K15" s="155"/>
       <c r="L15" s="155"/>
       <c r="M15" s="155"/>
-      <c r="N15" s="155"/>
+      <c r="N15" s="155">
+        <v>5715</v>
+      </c>
       <c r="O15" s="155"/>
       <c r="P15" s="155"/>
       <c r="Q15" s="155"/>
-      <c r="R15" s="155"/>
-      <c r="S15" s="155"/>
-      <c r="T15" s="155"/>
-      <c r="U15" s="155"/>
-      <c r="V15" s="155"/>
-      <c r="W15" s="155"/>
-      <c r="X15" s="155"/>
-      <c r="Y15" s="155"/>
-      <c r="Z15" s="155"/>
-      <c r="AA15" s="155"/>
-      <c r="AB15" s="155"/>
-      <c r="AC15" s="155"/>
-      <c r="AD15" s="155"/>
-      <c r="AE15" s="155"/>
-      <c r="AF15" s="155"/>
-      <c r="AG15" s="155"/>
-      <c r="AH15" s="155"/>
-      <c r="AI15" s="155"/>
+      <c r="R15" s="166" t="s">
+        <v>179</v>
+      </c>
+      <c r="S15" s="165"/>
+      <c r="T15" s="165"/>
+      <c r="U15" s="165"/>
+      <c r="V15" s="165"/>
+      <c r="W15" s="165"/>
+      <c r="X15" s="165"/>
+      <c r="Y15" s="165"/>
+      <c r="Z15" s="165"/>
+      <c r="AA15" s="165"/>
+      <c r="AB15" s="165"/>
+      <c r="AC15" s="165"/>
+      <c r="AD15" s="165"/>
+      <c r="AE15" s="165"/>
+      <c r="AF15" s="165"/>
+      <c r="AG15" s="165"/>
+      <c r="AH15" s="165"/>
+      <c r="AI15" s="155" t="s">
+        <v>175</v>
+      </c>
       <c r="AJ15" s="155"/>
       <c r="AK15" s="155"/>
       <c r="AL15" s="155"/>
@@ -20629,8 +21077,8 @@
       <c r="AX15" s="155"/>
       <c r="AY15" s="155"/>
       <c r="AZ15" s="155">
-        <f t="shared" ref="AZ15" si="4">N15-J15</f>
-        <v>0</v>
+        <f t="shared" ref="AZ15" si="3">N15-J15</f>
+        <v>178</v>
       </c>
       <c r="BA15" s="155"/>
       <c r="BB15" s="155"/>
@@ -20653,23 +21101,23 @@
       <c r="O16" s="155"/>
       <c r="P16" s="155"/>
       <c r="Q16" s="155"/>
-      <c r="R16" s="155"/>
-      <c r="S16" s="155"/>
-      <c r="T16" s="155"/>
-      <c r="U16" s="155"/>
-      <c r="V16" s="155"/>
-      <c r="W16" s="155"/>
-      <c r="X16" s="155"/>
-      <c r="Y16" s="155"/>
-      <c r="Z16" s="155"/>
-      <c r="AA16" s="155"/>
-      <c r="AB16" s="155"/>
-      <c r="AC16" s="155"/>
-      <c r="AD16" s="155"/>
-      <c r="AE16" s="155"/>
-      <c r="AF16" s="155"/>
-      <c r="AG16" s="155"/>
-      <c r="AH16" s="155"/>
+      <c r="R16" s="165"/>
+      <c r="S16" s="165"/>
+      <c r="T16" s="165"/>
+      <c r="U16" s="165"/>
+      <c r="V16" s="165"/>
+      <c r="W16" s="165"/>
+      <c r="X16" s="165"/>
+      <c r="Y16" s="165"/>
+      <c r="Z16" s="165"/>
+      <c r="AA16" s="165"/>
+      <c r="AB16" s="165"/>
+      <c r="AC16" s="165"/>
+      <c r="AD16" s="165"/>
+      <c r="AE16" s="165"/>
+      <c r="AF16" s="165"/>
+      <c r="AG16" s="165"/>
+      <c r="AH16" s="165"/>
       <c r="AI16" s="155"/>
       <c r="AJ16" s="155"/>
       <c r="AK16" s="155"/>
@@ -20744,7 +21192,7 @@
       <c r="AX17" s="155"/>
       <c r="AY17" s="155"/>
       <c r="AZ17" s="155">
-        <f t="shared" ref="AZ17" si="5">N17-J17</f>
+        <f t="shared" ref="AZ17" si="4">N17-J17</f>
         <v>0</v>
       </c>
       <c r="BA17" s="155"/>
@@ -20859,7 +21307,7 @@
       <c r="AX19" s="155"/>
       <c r="AY19" s="155"/>
       <c r="AZ19" s="155">
-        <f t="shared" ref="AZ19" si="6">N19-J19</f>
+        <f t="shared" ref="AZ19" si="5">N19-J19</f>
         <v>0</v>
       </c>
       <c r="BA19" s="155"/>
@@ -20974,7 +21422,7 @@
       <c r="AX21" s="155"/>
       <c r="AY21" s="155"/>
       <c r="AZ21" s="155">
-        <f t="shared" ref="AZ21" si="7">N21-J21</f>
+        <f t="shared" ref="AZ21" si="6">N21-J21</f>
         <v>0</v>
       </c>
       <c r="BA21" s="155"/>
@@ -21089,7 +21537,7 @@
       <c r="AX23" s="155"/>
       <c r="AY23" s="155"/>
       <c r="AZ23" s="155">
-        <f t="shared" ref="AZ23" si="8">N23-J23</f>
+        <f t="shared" ref="AZ23" si="7">N23-J23</f>
         <v>0</v>
       </c>
       <c r="BA23" s="155"/>
@@ -21204,7 +21652,7 @@
       <c r="AX25" s="155"/>
       <c r="AY25" s="155"/>
       <c r="AZ25" s="155">
-        <f t="shared" ref="AZ25" si="9">N25-J25</f>
+        <f t="shared" ref="AZ25" si="8">N25-J25</f>
         <v>0</v>
       </c>
       <c r="BA25" s="155"/>
@@ -21319,7 +21767,7 @@
       <c r="AX27" s="155"/>
       <c r="AY27" s="155"/>
       <c r="AZ27" s="155">
-        <f t="shared" ref="AZ27" si="10">N27-J27</f>
+        <f t="shared" ref="AZ27" si="9">N27-J27</f>
         <v>0</v>
       </c>
       <c r="BA27" s="155"/>
@@ -21434,7 +21882,7 @@
       <c r="AX29" s="155"/>
       <c r="AY29" s="155"/>
       <c r="AZ29" s="155">
-        <f t="shared" ref="AZ29" si="11">N29-J29</f>
+        <f t="shared" ref="AZ29" si="10">N29-J29</f>
         <v>0</v>
       </c>
       <c r="BA29" s="155"/>
@@ -21549,7 +21997,7 @@
       <c r="AX31" s="155"/>
       <c r="AY31" s="155"/>
       <c r="AZ31" s="155">
-        <f t="shared" ref="AZ31" si="12">N31-J31</f>
+        <f t="shared" ref="AZ31" si="11">N31-J31</f>
         <v>0</v>
       </c>
       <c r="BA31" s="155"/>
@@ -21735,8 +22183,8 @@
   </sheetPr>
   <dimension ref="A1:BE38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15:AH16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AZ13" sqref="AZ13:BC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18"/>
@@ -22069,7 +22517,7 @@
       <c r="AX7" s="155"/>
       <c r="AY7" s="155"/>
       <c r="AZ7" s="155">
-        <f t="shared" ref="AZ7" si="0">N7-J7</f>
+        <f>N7-J7</f>
         <v>-97</v>
       </c>
       <c r="BA7" s="155"/>
@@ -22266,23 +22714,33 @@
       <c r="BC10" s="155"/>
     </row>
     <row r="11" spans="1:57">
-      <c r="B11" s="155"/>
+      <c r="B11" s="155">
+        <v>1518</v>
+      </c>
       <c r="C11" s="155"/>
       <c r="D11" s="155"/>
       <c r="E11" s="155"/>
-      <c r="F11" s="155"/>
+      <c r="F11" s="157" t="s">
+        <v>168</v>
+      </c>
       <c r="G11" s="155"/>
       <c r="H11" s="155"/>
       <c r="I11" s="155"/>
-      <c r="J11" s="155"/>
+      <c r="J11" s="160">
+        <v>2903</v>
+      </c>
       <c r="K11" s="155"/>
       <c r="L11" s="155"/>
       <c r="M11" s="155"/>
-      <c r="N11" s="155"/>
+      <c r="N11" s="155">
+        <v>2895</v>
+      </c>
       <c r="O11" s="155"/>
       <c r="P11" s="155"/>
       <c r="Q11" s="155"/>
-      <c r="R11" s="155"/>
+      <c r="R11" s="155" t="s">
+        <v>170</v>
+      </c>
       <c r="S11" s="155"/>
       <c r="T11" s="155"/>
       <c r="U11" s="155"/>
@@ -22299,7 +22757,9 @@
       <c r="AF11" s="155"/>
       <c r="AG11" s="155"/>
       <c r="AH11" s="155"/>
-      <c r="AI11" s="155"/>
+      <c r="AI11" s="155" t="s">
+        <v>171</v>
+      </c>
       <c r="AJ11" s="155"/>
       <c r="AK11" s="155"/>
       <c r="AL11" s="155"/>
@@ -22317,12 +22777,15 @@
       <c r="AX11" s="155"/>
       <c r="AY11" s="155"/>
       <c r="AZ11" s="155">
-        <f t="shared" ref="AZ11" si="1">N11-J11</f>
-        <v>0</v>
+        <f>N11-J11</f>
+        <v>-8</v>
       </c>
       <c r="BA11" s="155"/>
       <c r="BB11" s="155"/>
       <c r="BC11" s="155"/>
+      <c r="BE11" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="12" spans="1:57">
       <c r="B12" s="155"/>
@@ -22381,23 +22844,33 @@
       <c r="BC12" s="155"/>
     </row>
     <row r="13" spans="1:57">
-      <c r="B13" s="155"/>
+      <c r="B13" s="155">
+        <v>2432</v>
+      </c>
       <c r="C13" s="155"/>
       <c r="D13" s="155"/>
       <c r="E13" s="155"/>
-      <c r="F13" s="155"/>
+      <c r="F13" s="157" t="s">
+        <v>180</v>
+      </c>
       <c r="G13" s="155"/>
       <c r="H13" s="155"/>
       <c r="I13" s="155"/>
-      <c r="J13" s="155"/>
+      <c r="J13" s="155">
+        <v>1743</v>
+      </c>
       <c r="K13" s="155"/>
       <c r="L13" s="155"/>
       <c r="M13" s="155"/>
-      <c r="N13" s="155"/>
+      <c r="N13" s="155">
+        <v>1503</v>
+      </c>
       <c r="O13" s="155"/>
       <c r="P13" s="155"/>
       <c r="Q13" s="155"/>
-      <c r="R13" s="155"/>
+      <c r="R13" s="157" t="s">
+        <v>181</v>
+      </c>
       <c r="S13" s="155"/>
       <c r="T13" s="155"/>
       <c r="U13" s="155"/>
@@ -22414,7 +22887,9 @@
       <c r="AF13" s="155"/>
       <c r="AG13" s="155"/>
       <c r="AH13" s="155"/>
-      <c r="AI13" s="155"/>
+      <c r="AI13" s="155" t="s">
+        <v>182</v>
+      </c>
       <c r="AJ13" s="155"/>
       <c r="AK13" s="155"/>
       <c r="AL13" s="155"/>
@@ -22432,12 +22907,15 @@
       <c r="AX13" s="155"/>
       <c r="AY13" s="155"/>
       <c r="AZ13" s="155">
-        <f t="shared" ref="AZ13" si="2">N13-J13</f>
-        <v>0</v>
+        <f>N13-J13</f>
+        <v>-240</v>
       </c>
       <c r="BA13" s="155"/>
       <c r="BB13" s="155"/>
       <c r="BC13" s="155"/>
+      <c r="BE13" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="14" spans="1:57">
       <c r="B14" s="155"/>
@@ -22494,6 +22972,9 @@
       <c r="BA14" s="155"/>
       <c r="BB14" s="155"/>
       <c r="BC14" s="155"/>
+      <c r="BE14" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="15" spans="1:57">
       <c r="B15" s="155"/>
@@ -22547,7 +23028,7 @@
       <c r="AX15" s="155"/>
       <c r="AY15" s="155"/>
       <c r="AZ15" s="155">
-        <f t="shared" ref="AZ15" si="3">N15-J15</f>
+        <f t="shared" ref="AZ15" si="0">N15-J15</f>
         <v>0</v>
       </c>
       <c r="BA15" s="155"/>
@@ -22662,7 +23143,7 @@
       <c r="AX17" s="155"/>
       <c r="AY17" s="155"/>
       <c r="AZ17" s="155">
-        <f t="shared" ref="AZ17" si="4">N17-J17</f>
+        <f t="shared" ref="AZ17" si="1">N17-J17</f>
         <v>0</v>
       </c>
       <c r="BA17" s="155"/>
@@ -22777,7 +23258,7 @@
       <c r="AX19" s="155"/>
       <c r="AY19" s="155"/>
       <c r="AZ19" s="155">
-        <f t="shared" ref="AZ19" si="5">N19-J19</f>
+        <f t="shared" ref="AZ19" si="2">N19-J19</f>
         <v>0</v>
       </c>
       <c r="BA19" s="155"/>
@@ -22892,7 +23373,7 @@
       <c r="AX21" s="155"/>
       <c r="AY21" s="155"/>
       <c r="AZ21" s="155">
-        <f t="shared" ref="AZ21" si="6">N21-J21</f>
+        <f t="shared" ref="AZ21" si="3">N21-J21</f>
         <v>0</v>
       </c>
       <c r="BA21" s="155"/>
@@ -23007,7 +23488,7 @@
       <c r="AX23" s="155"/>
       <c r="AY23" s="155"/>
       <c r="AZ23" s="155">
-        <f t="shared" ref="AZ23" si="7">N23-J23</f>
+        <f t="shared" ref="AZ23" si="4">N23-J23</f>
         <v>0</v>
       </c>
       <c r="BA23" s="155"/>
@@ -23122,7 +23603,7 @@
       <c r="AX25" s="155"/>
       <c r="AY25" s="155"/>
       <c r="AZ25" s="155">
-        <f t="shared" ref="AZ25" si="8">N25-J25</f>
+        <f t="shared" ref="AZ25" si="5">N25-J25</f>
         <v>0</v>
       </c>
       <c r="BA25" s="155"/>
@@ -23237,7 +23718,7 @@
       <c r="AX27" s="155"/>
       <c r="AY27" s="155"/>
       <c r="AZ27" s="155">
-        <f t="shared" ref="AZ27" si="9">N27-J27</f>
+        <f t="shared" ref="AZ27" si="6">N27-J27</f>
         <v>0</v>
       </c>
       <c r="BA27" s="155"/>
@@ -23352,7 +23833,7 @@
       <c r="AX29" s="155"/>
       <c r="AY29" s="155"/>
       <c r="AZ29" s="155">
-        <f t="shared" ref="AZ29" si="10">N29-J29</f>
+        <f t="shared" ref="AZ29" si="7">N29-J29</f>
         <v>0</v>
       </c>
       <c r="BA29" s="155"/>
@@ -23467,7 +23948,7 @@
       <c r="AX31" s="155"/>
       <c r="AY31" s="155"/>
       <c r="AZ31" s="155">
-        <f t="shared" ref="AZ31" si="11">N31-J31</f>
+        <f t="shared" ref="AZ31" si="8">N31-J31</f>
         <v>0</v>
       </c>
       <c r="BA31" s="155"/>
@@ -23582,7 +24063,7 @@
       <c r="AX33" s="155"/>
       <c r="AY33" s="155"/>
       <c r="AZ33" s="155">
-        <f t="shared" ref="AZ33" si="12">N33-J33</f>
+        <f t="shared" ref="AZ33" si="9">N33-J33</f>
         <v>0</v>
       </c>
       <c r="BA33" s="155"/>
@@ -23697,7 +24178,7 @@
       <c r="AX35" s="155"/>
       <c r="AY35" s="155"/>
       <c r="AZ35" s="155">
-        <f t="shared" ref="AZ35" si="13">N35-J35</f>
+        <f t="shared" ref="AZ35" si="10">N35-J35</f>
         <v>0</v>
       </c>
       <c r="BA35" s="155"/>
@@ -23812,7 +24293,7 @@
       <c r="AX37" s="155"/>
       <c r="AY37" s="155"/>
       <c r="AZ37" s="155">
-        <f t="shared" ref="AZ37" si="14">N37-J37</f>
+        <f t="shared" ref="AZ37" si="11">N37-J37</f>
         <v>0</v>
       </c>
       <c r="BA37" s="155"/>
@@ -24018,8 +24499,8 @@
   </sheetPr>
   <dimension ref="A1:BC32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BD12" sqref="BD12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9:AY10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3" defaultRowHeight="18"/>
@@ -24147,10 +24628,10 @@
       <c r="AY4" s="154"/>
       <c r="AZ4" s="11"/>
       <c r="BA4" s="11"/>
-      <c r="BB4" s="158" t="s">
+      <c r="BB4" s="161" t="s">
         <v>162</v>
       </c>
-      <c r="BC4" s="158"/>
+      <c r="BC4" s="161"/>
     </row>
     <row r="5" spans="1:55" ht="18" customHeight="1">
       <c r="B5" s="157" t="s">
@@ -24272,16 +24753,18 @@
       <c r="AZ6" s="11"/>
       <c r="BA6" s="11"/>
       <c r="BB6" s="13">
-        <f>SUMPRODUCT(勝利!$AZ$5:$AZ$9)</f>
-        <v>1787</v>
+        <f>SUMPRODUCT(勝利!$AZ$11:$AZ$15)</f>
+        <v>426</v>
       </c>
       <c r="BC6" s="13">
-        <f>SUMPRODUCT(敗北!$AZ$5:$AZ$9)</f>
-        <v>-314</v>
+        <f>SUMPRODUCT(敗北!$AZ$9:$AZ$13)</f>
+        <v>-290</v>
       </c>
     </row>
     <row r="7" spans="1:55" ht="18" customHeight="1">
-      <c r="B7" s="155"/>
+      <c r="B7" s="157" t="s">
+        <v>185</v>
+      </c>
       <c r="C7" s="155"/>
       <c r="D7" s="155"/>
       <c r="E7" s="155"/>
@@ -24289,7 +24772,9 @@
       <c r="G7" s="155"/>
       <c r="H7" s="155"/>
       <c r="I7" s="155"/>
-      <c r="J7" s="155"/>
+      <c r="J7" s="155">
+        <v>136</v>
+      </c>
       <c r="K7" s="155"/>
       <c r="L7" s="155"/>
       <c r="M7" s="155"/>
@@ -24297,7 +24782,9 @@
       <c r="O7" s="155"/>
       <c r="P7" s="155"/>
       <c r="Q7" s="155"/>
-      <c r="R7" s="155"/>
+      <c r="R7" s="157" t="s">
+        <v>186</v>
+      </c>
       <c r="S7" s="155"/>
       <c r="T7" s="155"/>
       <c r="U7" s="155"/>
@@ -24391,11 +24878,11 @@
       <c r="AY8" s="155"/>
       <c r="AZ8" s="11"/>
       <c r="BA8" s="11"/>
-      <c r="BB8" s="159">
+      <c r="BB8" s="162">
         <f>SUM($BB$6:$BC$6)</f>
-        <v>1473</v>
-      </c>
-      <c r="BC8" s="159"/>
+        <v>136</v>
+      </c>
+      <c r="BC8" s="162"/>
     </row>
     <row r="9" spans="1:55">
       <c r="B9" s="155"/>
